--- a/InputFiles/MTP_DV3_22.11_v12.0.xlsx
+++ b/InputFiles/MTP_DV3_22.11_v12.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\May\Commons_Automation\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6316CEB-AD9D-4C59-ADE6-129FD25C0031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B94AA182-3507-4C74-A30B-634953841672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="723" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sourceData" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="679">
   <si>
     <t>MTP DV3 TEST CASES FOR AUTOMATION</t>
   </si>
@@ -771,9 +771,6 @@
     <t>targetCount</t>
   </si>
   <si>
-    <t>/disease/EFO_0000571/associations</t>
-  </si>
-  <si>
     <t>/disease/HP_0011097/associations</t>
   </si>
   <si>
@@ -786,9 +783,6 @@
     <t>/disease/EFO_0005543/associations</t>
   </si>
   <si>
-    <t>/disease/EFO_1000044/associations</t>
-  </si>
-  <si>
     <t>/disease/MONDO_0016707/associations</t>
   </si>
   <si>
@@ -807,9 +801,6 @@
     <t>/disease/MONDO_0016690/associations</t>
   </si>
   <si>
-    <t>/disease/EFO_0000673/associations</t>
-  </si>
-  <si>
     <t>/disease/EFO_0000502/associations</t>
   </si>
   <si>
@@ -819,30 +810,15 @@
     <t>/disease/MONDO_0012197/associations</t>
   </si>
   <si>
-    <t>/disease/EFO_0000182/associations</t>
-  </si>
-  <si>
     <t>/disease/EFO_1000026/associations</t>
   </si>
   <si>
-    <t>/disease/EFO_0000640/associations</t>
-  </si>
-  <si>
-    <t>/disease/EFO_0000181/associations</t>
-  </si>
-  <si>
-    <t>/disease/EFO_0006544/associations</t>
-  </si>
-  <si>
     <t>/disease/MONDO_0006412/associations</t>
   </si>
   <si>
     <t>/disease/EFO_1000318/associations</t>
   </si>
   <si>
-    <t>/disease/EFO_0000503/associations</t>
-  </si>
-  <si>
     <t>/disease/MONDO_0004571/associations</t>
   </si>
   <si>
@@ -855,15 +831,9 @@
     <t>/disease/EFO_1000251/associations</t>
   </si>
   <si>
-    <t>/disease/EFO_0000708/associations</t>
-  </si>
-  <si>
     <t>/disease/EFO_0002939/associations</t>
   </si>
   <si>
-    <t>/disease/EFO_1000616/associations</t>
-  </si>
-  <si>
     <t>/disease/EFO_0010658/associations</t>
   </si>
   <si>
@@ -873,9 +843,6 @@
     <t>/disease/EFO_0003094/associations</t>
   </si>
   <si>
-    <t>/disease/EFO_1000043/associations</t>
-  </si>
-  <si>
     <t>/disease/MONDO_0003222/associations</t>
   </si>
   <si>
@@ -894,9 +861,6 @@
     <t>/disease/Orphanet_308/associations</t>
   </si>
   <si>
-    <t>/disease/EFO_1000796/associations</t>
-  </si>
-  <si>
     <t>/disease/EFO_1002008/associations</t>
   </si>
   <si>
@@ -927,12 +891,6 @@
     <t>/disease/EFO_0000350/associations</t>
   </si>
   <si>
-    <t>/disease/EFO_1000307/associations</t>
-  </si>
-  <si>
-    <t>/disease/EFO_0000335/associations</t>
-  </si>
-  <si>
     <t>/disease/EFO_0007206/associations</t>
   </si>
   <si>
@@ -945,9 +903,6 @@
     <t>/disease/EFO_0000637/associations</t>
   </si>
   <si>
-    <t>/disease/EFO_1001949/associations</t>
-  </si>
-  <si>
     <t>/disease/EFO_0000094/associations</t>
   </si>
   <si>
@@ -957,18 +912,9 @@
     <t>/disease/MONDO_0016729/associations</t>
   </si>
   <si>
-    <t>/disease/EFO_0000403/associations</t>
-  </si>
-  <si>
-    <t>/disease/EFO_0000349/associations</t>
-  </si>
-  <si>
     <t>/disease/MONDO_0008978/associations</t>
   </si>
   <si>
-    <t>/disease/EFO_0000588/associations</t>
-  </si>
-  <si>
     <t>/disease/EFO_0004799/associations</t>
   </si>
   <si>
@@ -981,30 +927,15 @@
     <t>/disease/EFO_1000069/associations</t>
   </si>
   <si>
-    <t>/disease/EFO_1000566/associations</t>
-  </si>
-  <si>
     <t>/disease/EFO_0000641/associations</t>
   </si>
   <si>
-    <t>/disease/EFO_0005631/associations</t>
-  </si>
-  <si>
     <t>/disease/MONDO_0020580/associations</t>
   </si>
   <si>
-    <t>/disease/EFO_0005221/associations</t>
-  </si>
-  <si>
-    <t>/disease/EFO_0002892/associations</t>
-  </si>
-  <si>
     <t>/disease/MONDO_0015798/associations</t>
   </si>
   <si>
-    <t>/disease/EFO_0007532/associations</t>
-  </si>
-  <si>
     <t>/disease/MONDO_0018177/associations</t>
   </si>
   <si>
@@ -1020,18 +951,9 @@
     <t>/disease/MONDO_0022963/associations</t>
   </si>
   <si>
-    <t>/disease/EFO_0000389/associations</t>
-  </si>
-  <si>
-    <t>/disease/EFO_1000162/associations</t>
-  </si>
-  <si>
     <t>/disease/EFO_0000693/associations</t>
   </si>
   <si>
-    <t>/disease/EFO_1000613/associations</t>
-  </si>
-  <si>
     <t>/disease/EFO_0000222/associations</t>
   </si>
   <si>
@@ -1047,9 +969,6 @@
     <t>/disease/EFO_0009812/associations</t>
   </si>
   <si>
-    <t>/disease/EFO_1000581/associations</t>
-  </si>
-  <si>
     <t>/disease/MONDO_0016642/associations</t>
   </si>
   <si>
@@ -1074,33 +993,21 @@
     <t>/disease/MONDO_0008392/associations</t>
   </si>
   <si>
-    <t>/disease/EFO_0000519/associations</t>
-  </si>
-  <si>
     <t>/disease/MONDO_0100342/associations</t>
   </si>
   <si>
-    <t>/disease/EFO_0020005/associations</t>
-  </si>
-  <si>
     <t>/disease/EFO_1000605/associations</t>
   </si>
   <si>
     <t>/disease/EFO_1000856/associations</t>
   </si>
   <si>
-    <t>/disease/EFO_0002916/associations</t>
-  </si>
-  <si>
     <t>/disease/EFO_1000151/associations</t>
   </si>
   <si>
     <t>/disease/MONDO_0016748/associations</t>
   </si>
   <si>
-    <t>EFO_0000571</t>
-  </si>
-  <si>
     <t>HP_0011097</t>
   </si>
   <si>
@@ -1113,9 +1020,6 @@
     <t>EFO_0005543</t>
   </si>
   <si>
-    <t>EFO_1000044</t>
-  </si>
-  <si>
     <t>MONDO_0016707</t>
   </si>
   <si>
@@ -1134,9 +1038,6 @@
     <t>MONDO_0016690</t>
   </si>
   <si>
-    <t>EFO_0000673</t>
-  </si>
-  <si>
     <t>EFO_0000502</t>
   </si>
   <si>
@@ -1146,30 +1047,15 @@
     <t>MONDO_0012197</t>
   </si>
   <si>
-    <t>EFO_0000182</t>
-  </si>
-  <si>
     <t>EFO_1000026</t>
   </si>
   <si>
-    <t>EFO_0000640</t>
-  </si>
-  <si>
-    <t>EFO_0000181</t>
-  </si>
-  <si>
-    <t>EFO_0006544</t>
-  </si>
-  <si>
     <t>MONDO_0006412</t>
   </si>
   <si>
     <t>EFO_1000318</t>
   </si>
   <si>
-    <t>EFO_0000503</t>
-  </si>
-  <si>
     <t>MONDO_0004571</t>
   </si>
   <si>
@@ -1182,15 +1068,9 @@
     <t>EFO_1000251</t>
   </si>
   <si>
-    <t>EFO_0000708</t>
-  </si>
-  <si>
     <t>EFO_0002939</t>
   </si>
   <si>
-    <t>EFO_1000616</t>
-  </si>
-  <si>
     <t>EFO_0010658</t>
   </si>
   <si>
@@ -1200,9 +1080,6 @@
     <t>EFO_0003094</t>
   </si>
   <si>
-    <t>EFO_1000043</t>
-  </si>
-  <si>
     <t>MONDO_0003222</t>
   </si>
   <si>
@@ -1221,9 +1098,6 @@
     <t>Orphanet_308</t>
   </si>
   <si>
-    <t>EFO_1000796</t>
-  </si>
-  <si>
     <t>EFO_1002008</t>
   </si>
   <si>
@@ -1254,12 +1128,6 @@
     <t>EFO_0000350</t>
   </si>
   <si>
-    <t>EFO_1000307</t>
-  </si>
-  <si>
-    <t>EFO_0000335</t>
-  </si>
-  <si>
     <t>EFO_0007206</t>
   </si>
   <si>
@@ -1272,9 +1140,6 @@
     <t>EFO_0000637</t>
   </si>
   <si>
-    <t>EFO_1001949</t>
-  </si>
-  <si>
     <t>EFO_0000094</t>
   </si>
   <si>
@@ -1284,18 +1149,9 @@
     <t>MONDO_0016729</t>
   </si>
   <si>
-    <t>EFO_0000403</t>
-  </si>
-  <si>
-    <t>EFO_0000349</t>
-  </si>
-  <si>
     <t>MONDO_0008978</t>
   </si>
   <si>
-    <t>EFO_0000588</t>
-  </si>
-  <si>
     <t>EFO_0004799</t>
   </si>
   <si>
@@ -1308,30 +1164,15 @@
     <t>EFO_1000069</t>
   </si>
   <si>
-    <t>EFO_1000566</t>
-  </si>
-  <si>
     <t>EFO_0000641</t>
   </si>
   <si>
-    <t>EFO_0005631</t>
-  </si>
-  <si>
     <t>MONDO_0020580</t>
   </si>
   <si>
-    <t>EFO_0005221</t>
-  </si>
-  <si>
-    <t>EFO_0002892</t>
-  </si>
-  <si>
     <t>MONDO_0015798</t>
   </si>
   <si>
-    <t>EFO_0007532</t>
-  </si>
-  <si>
     <t>MONDO_0018177</t>
   </si>
   <si>
@@ -1347,18 +1188,9 @@
     <t>MONDO_0022963</t>
   </si>
   <si>
-    <t>EFO_0000389</t>
-  </si>
-  <si>
-    <t>EFO_1000162</t>
-  </si>
-  <si>
     <t>EFO_0000693</t>
   </si>
   <si>
-    <t>EFO_1000613</t>
-  </si>
-  <si>
     <t>EFO_0000222</t>
   </si>
   <si>
@@ -1374,9 +1206,6 @@
     <t>EFO_0009812</t>
   </si>
   <si>
-    <t>EFO_1000581</t>
-  </si>
-  <si>
     <t>MONDO_0016642</t>
   </si>
   <si>
@@ -1401,33 +1230,21 @@
     <t>MONDO_0008392</t>
   </si>
   <si>
-    <t>EFO_0000519</t>
-  </si>
-  <si>
     <t>MONDO_0100342</t>
   </si>
   <si>
-    <t>EFO_0020005</t>
-  </si>
-  <si>
     <t>EFO_1000605</t>
   </si>
   <si>
     <t>EFO_1000856</t>
   </si>
   <si>
-    <t>EFO_0002916</t>
-  </si>
-  <si>
     <t>EFO_1000151</t>
   </si>
   <si>
     <t>MONDO_0016748</t>
   </si>
   <si>
-    <t>lung adenocarcinoma</t>
-  </si>
-  <si>
     <t>Epileptic spasm</t>
   </si>
   <si>
@@ -1440,9 +1257,6 @@
     <t>glioma</t>
   </si>
   <si>
-    <t>pancreatic adenocarcinoma</t>
-  </si>
-  <si>
     <t>astroblastoma</t>
   </si>
   <si>
@@ -1461,9 +1275,6 @@
     <t>pleomorphic xanthoastrocytoma</t>
   </si>
   <si>
-    <t>prostate adenocarcinoma</t>
-  </si>
-  <si>
     <t>ganglioneuroblastoma</t>
   </si>
   <si>
@@ -1473,30 +1284,15 @@
     <t>idiopathic aplastic anemia</t>
   </si>
   <si>
-    <t>hepatocellular carcinoma</t>
-  </si>
-  <si>
     <t>diffuse intrinsic pontine glioma</t>
   </si>
   <si>
-    <t>papillary renal cell carcinoma</t>
-  </si>
-  <si>
-    <t>head and neck squamous cell carcinoma</t>
-  </si>
-  <si>
-    <t>bladder transitional cell carcinoma</t>
-  </si>
-  <si>
     <t>sinus histiocytosis with massive lymphadenopathy</t>
   </si>
   <si>
     <t>Langerhans Cell Histiocytosis</t>
   </si>
   <si>
-    <t>gastric adenocarcinoma</t>
-  </si>
-  <si>
     <t>intestinal impaction</t>
   </si>
   <si>
@@ -1509,15 +1305,9 @@
     <t>Fallopian Tube Carcinoma</t>
   </si>
   <si>
-    <t>squamous cell lung carcinoma</t>
-  </si>
-  <si>
     <t>medulloblastoma</t>
   </si>
   <si>
-    <t>Uveal Melanoma</t>
-  </si>
-  <si>
     <t>neurodevelopmental disorder with behavioral abnormalities, absent speech, and hypotonia</t>
   </si>
   <si>
@@ -1527,9 +1317,6 @@
     <t>ganglioglioma</t>
   </si>
   <si>
-    <t>ovarian serous cystadenocarcinoma</t>
-  </si>
-  <si>
     <t>central nervous system melanocytic neoplasm</t>
   </si>
   <si>
@@ -1548,9 +1335,6 @@
     <t>Unverricht-Lundborg disease</t>
   </si>
   <si>
-    <t>adrenal cortex carcinoma</t>
-  </si>
-  <si>
     <t>atypical teratoid rhabdoid tumor</t>
   </si>
   <si>
@@ -1581,12 +1365,6 @@
     <t>clear cell sarcoma of the kidney</t>
   </si>
   <si>
-    <t>Invasive Breast Carcinoma</t>
-  </si>
-  <si>
-    <t>chromophobe renal cell carcinoma</t>
-  </si>
-  <si>
     <t>choroid plexus cancer</t>
   </si>
   <si>
@@ -1599,9 +1377,6 @@
     <t>osteosarcoma</t>
   </si>
   <si>
-    <t>colon adenocarcinoma</t>
-  </si>
-  <si>
     <t>B-cell acute lymphoblastic leukemia</t>
   </si>
   <si>
@@ -1611,18 +1386,9 @@
     <t>mixed neuronal-glial tumor</t>
   </si>
   <si>
-    <t>diffuse large B-cell lymphoma</t>
-  </si>
-  <si>
-    <t>clear cell renal carcinoma</t>
-  </si>
-  <si>
     <t>chordoma</t>
   </si>
   <si>
-    <t>mesothelioma</t>
-  </si>
-  <si>
     <t>cholelithiasis</t>
   </si>
   <si>
@@ -1635,30 +1401,15 @@
     <t>Adamantinomatous Craniopharyngioma</t>
   </si>
   <si>
-    <t>Testicular Germ Cell Tumor</t>
-  </si>
-  <si>
     <t>papillary thyroid carcinoma</t>
   </si>
   <si>
-    <t>rectal adenocarcinoma</t>
-  </si>
-  <si>
     <t>germinomatous germ cell tumor</t>
   </si>
   <si>
-    <t>cholangiocarcinoma</t>
-  </si>
-  <si>
-    <t>thyroid carcinoma</t>
-  </si>
-  <si>
     <t>inflammatory myofibroblastic tumor</t>
   </si>
   <si>
-    <t>uterine corpus cancer</t>
-  </si>
-  <si>
     <t>glioblastoma</t>
   </si>
   <si>
@@ -1674,18 +1425,9 @@
     <t>desmoplastic infantile astrocytoma</t>
   </si>
   <si>
-    <t>cutaneous melanoma</t>
-  </si>
-  <si>
-    <t>Cervical Adenosquamous Carcinoma</t>
-  </si>
-  <si>
     <t>schwannoma</t>
   </si>
   <si>
-    <t>Uterine Carcinosarcoma</t>
-  </si>
-  <si>
     <t>acute myeloid leukemia</t>
   </si>
   <si>
@@ -1701,9 +1443,6 @@
     <t>secondary malignant neoplasm</t>
   </si>
   <si>
-    <t>Thymoma</t>
-  </si>
-  <si>
     <t>meningioma</t>
   </si>
   <si>
@@ -1728,24 +1467,15 @@
     <t>Roussy-Levy syndrome</t>
   </si>
   <si>
-    <t>glioblastoma multiforme</t>
-  </si>
-  <si>
     <t>malignant glioma</t>
   </si>
   <si>
-    <t>pheochromocytoma-paraganglioma</t>
-  </si>
-  <si>
     <t>Undifferentiated Ovarian Carcinoma</t>
   </si>
   <si>
     <t>central neurocytoma</t>
   </si>
   <si>
-    <t>esophageal carcinoma</t>
-  </si>
-  <si>
     <t>Cavernous Hemangioma</t>
   </si>
   <si>
@@ -1761,12 +1491,6 @@
     <t>/disease/EFO_0000174</t>
   </si>
   <si>
-    <t>/disease/EFO_0000181</t>
-  </si>
-  <si>
-    <t>/disease/EFO_0000182</t>
-  </si>
-  <si>
     <t>/disease/EFO_0000209</t>
   </si>
   <si>
@@ -1779,39 +1503,15 @@
     <t>/disease/EFO_0000309</t>
   </si>
   <si>
-    <t>/disease/EFO_0000335</t>
-  </si>
-  <si>
-    <t>/disease/EFO_0000349</t>
-  </si>
-  <si>
     <t>/disease/EFO_0000350</t>
   </si>
   <si>
-    <t>/disease/EFO_0000389</t>
-  </si>
-  <si>
-    <t>/disease/EFO_0000403</t>
-  </si>
-  <si>
     <t>/disease/EFO_0000500</t>
   </si>
   <si>
     <t>/disease/EFO_0000502</t>
   </si>
   <si>
-    <t>/disease/EFO_0000503</t>
-  </si>
-  <si>
-    <t>/disease/EFO_0000519</t>
-  </si>
-  <si>
-    <t>/disease/EFO_0000571</t>
-  </si>
-  <si>
-    <t>/disease/EFO_0000588</t>
-  </si>
-  <si>
     <t>/disease/EFO_0000621</t>
   </si>
   <si>
@@ -1821,36 +1521,21 @@
     <t>/disease/EFO_0000637</t>
   </si>
   <si>
-    <t>/disease/EFO_0000640</t>
-  </si>
-  <si>
     <t>/disease/EFO_0000641</t>
   </si>
   <si>
     <t>/disease/EFO_0000658</t>
   </si>
   <si>
-    <t>/disease/EFO_0000673</t>
-  </si>
-  <si>
     <t>/disease/EFO_0000691</t>
   </si>
   <si>
     <t>/disease/EFO_0000693</t>
   </si>
   <si>
-    <t>/disease/EFO_0000708</t>
-  </si>
-  <si>
     <t>/disease/EFO_0000760</t>
   </si>
   <si>
-    <t>/disease/EFO_0002892</t>
-  </si>
-  <si>
-    <t>/disease/EFO_0002916</t>
-  </si>
-  <si>
     <t>/disease/EFO_0002918</t>
   </si>
   <si>
@@ -1860,66 +1545,39 @@
     <t>/disease/EFO_0003094</t>
   </si>
   <si>
-    <t>/disease/EFO_0005221</t>
-  </si>
-  <si>
     <t>/disease/EFO_0005543</t>
   </si>
   <si>
     <t>/disease/EFO_0005551</t>
   </si>
   <si>
-    <t>/disease/EFO_0005631</t>
-  </si>
-  <si>
     <t>/disease/EFO_0005784</t>
   </si>
   <si>
-    <t>/disease/EFO_0006544</t>
-  </si>
-  <si>
     <t>/disease/EFO_0007206</t>
   </si>
   <si>
-    <t>/disease/EFO_0007532</t>
-  </si>
-  <si>
     <t>/disease/EFO_0009812</t>
   </si>
   <si>
-    <t>/disease/EFO_0020005</t>
-  </si>
-  <si>
     <t>/disease/EFO_1000026</t>
   </si>
   <si>
     <t>/disease/EFO_1000028</t>
   </si>
   <si>
-    <t>/disease/EFO_1000043</t>
-  </si>
-  <si>
-    <t>/disease/EFO_1000044</t>
-  </si>
-  <si>
     <t>/disease/EFO_1000069</t>
   </si>
   <si>
     <t>/disease/EFO_1000151</t>
   </si>
   <si>
-    <t>/disease/EFO_1000162</t>
-  </si>
-  <si>
     <t>/disease/EFO_1000177</t>
   </si>
   <si>
     <t>/disease/EFO_1000209</t>
   </si>
   <si>
-    <t>/disease/EFO_1000307</t>
-  </si>
-  <si>
     <t>/disease/EFO_1000318</t>
   </si>
   <si>
@@ -1929,27 +1587,9 @@
     <t>/disease/EFO_1000512</t>
   </si>
   <si>
-    <t>/disease/EFO_1000566</t>
-  </si>
-  <si>
-    <t>/disease/EFO_1000581</t>
-  </si>
-  <si>
-    <t>/disease/EFO_1000613</t>
-  </si>
-  <si>
-    <t>/disease/EFO_1000616</t>
-  </si>
-  <si>
-    <t>/disease/EFO_1000796</t>
-  </si>
-  <si>
     <t>/disease/EFO_1000856</t>
   </si>
   <si>
-    <t>/disease/EFO_1001949</t>
-  </si>
-  <si>
     <t>/disease/EFO_1002008</t>
   </si>
   <si>
@@ -2055,109 +1695,109 @@
     <t>/evidence/ENSG00000135903/EFO_0002918</t>
   </si>
   <si>
-    <t>/evidence/ENSG00000102967/EFO_0000350</t>
-  </si>
-  <si>
-    <t>/evidence/ENSG00000264765/EFO_1000613</t>
-  </si>
-  <si>
-    <t>/evidence/ENSG00000203995/MONDO_0019404</t>
-  </si>
-  <si>
-    <t>/evidence/ENSG00000253772/MONDO_0022963</t>
-  </si>
-  <si>
-    <t>/evidence/ENSG00000238405/EFO_0005221</t>
-  </si>
-  <si>
-    <t>/evidence/ENSG00000124299/MONDO_0021637</t>
-  </si>
-  <si>
-    <t>/evidence/ENSG00000172780/EFO_1000566</t>
-  </si>
-  <si>
-    <t>/evidence/ENSG00000262339/EFO_0000389</t>
-  </si>
-  <si>
-    <t>/evidence/ENSG00000261431/EFO_0000760</t>
-  </si>
-  <si>
-    <t>/evidence/ENSG00000284952/EFO_0000309</t>
-  </si>
-  <si>
-    <t>/evidence/ENSG00000286076/EFO_1000475</t>
-  </si>
-  <si>
-    <t>/evidence/ENSG00000229001/EFO_1000028</t>
-  </si>
-  <si>
-    <t>/evidence/ENSG00000229671/EFO_0000571</t>
-  </si>
-  <si>
-    <t>/evidence/ENSG00000169067/EFO_1000616</t>
-  </si>
-  <si>
-    <t>/evidence/ENSG00000287971/EFO_1002008</t>
-  </si>
-  <si>
-    <t>/evidence/ENSG00000280670/EFO_0000588</t>
-  </si>
-  <si>
-    <t>/evidence/ENSG00000227757/EFO_0000588</t>
-  </si>
-  <si>
-    <t>/evidence/ENSG00000234511/EFO_0000588</t>
-  </si>
-  <si>
-    <t>/evidence/ENSG00000288022/MONDO_0006058</t>
-  </si>
-  <si>
-    <t>/evidence/ENSG00000248323/EFO_1000151</t>
-  </si>
-  <si>
-    <t>/evidence/ENSG00000231253/EFO_0000220</t>
-  </si>
-  <si>
-    <t>/evidence/ENSG00000273402/EFO_0000181</t>
-  </si>
-  <si>
-    <t>/evidence/ENSG00000272428/EFO_0003094</t>
-  </si>
-  <si>
-    <t>/evidence/ENSG00000256582/EFO_1000566</t>
-  </si>
-  <si>
-    <t>/evidence/ENSG00000168903/EFO_1000043</t>
-  </si>
-  <si>
-    <t>/evidence/ENSG00000226724/MONDO_0016707</t>
-  </si>
-  <si>
-    <t>/evidence/ENSG00000189007/EFO_0000621</t>
-  </si>
-  <si>
-    <t>/evidence/ENSG00000224286/EFO_0000673</t>
-  </si>
-  <si>
-    <t>/evidence/ENSG00000231530/EFO_0005631</t>
-  </si>
-  <si>
-    <t>/evidence/ENSG00000184905/MONDO_0020580</t>
-  </si>
-  <si>
-    <t>/evidence/ENSG00000239212/EFO_0002916</t>
-  </si>
-  <si>
-    <t>/evidence/ENSG00000239323/MONDO_0021637</t>
-  </si>
-  <si>
-    <t>/evidence/ENSG00000130023/EFO_0000350</t>
-  </si>
-  <si>
-    <t>/evidence/ENSG00000095951/EFO_1000856</t>
-  </si>
-  <si>
-    <t>/evidence/ENSG00000276809/EFO_0007532</t>
+    <t>/evidence/ENSG00000276261/EFO_0000658</t>
+  </si>
+  <si>
+    <t>/evidence/ENSG00000183324/MONDO_0021637</t>
+  </si>
+  <si>
+    <t>/evidence/ENSG00000237761/MONDO_0022963</t>
+  </si>
+  <si>
+    <t>/evidence/ENSG00000126107/EFO_1000475</t>
+  </si>
+  <si>
+    <t>/evidence/ENSG00000221697/EFO_0000350</t>
+  </si>
+  <si>
+    <t>/evidence/ENSG00000143933/MONDO_0016690</t>
+  </si>
+  <si>
+    <t>/evidence/ENSG00000272823/MONDO_0016680</t>
+  </si>
+  <si>
+    <t>/evidence/ENSG00000251161/MONDO_0016715</t>
+  </si>
+  <si>
+    <t>/evidence/ENSG00000143207/MONDO_0020081</t>
+  </si>
+  <si>
+    <t>/evidence/ENSG00000102038/EFO_1000028</t>
+  </si>
+  <si>
+    <t>/evidence/ENSG00000273998/EFO_0005551</t>
+  </si>
+  <si>
+    <t>/evidence/ENSG00000279354/EFO_0005784</t>
+  </si>
+  <si>
+    <t>/evidence/ENSG00000114023/MONDO_0100342</t>
+  </si>
+  <si>
+    <t>/evidence/ENSG00000160917/EFO_1000177</t>
+  </si>
+  <si>
+    <t>/evidence/ENSG00000147174/EFO_0000174</t>
+  </si>
+  <si>
+    <t>/evidence/ENSG00000212545/MONDO_0008978</t>
+  </si>
+  <si>
+    <t>/evidence/ENSG00000250899/MONDO_0018177</t>
+  </si>
+  <si>
+    <t>/evidence/ENSG00000255528/EFO_0000222</t>
+  </si>
+  <si>
+    <t>/evidence/ENSG00000250192/EFO_1000209</t>
+  </si>
+  <si>
+    <t>/evidence/ENSG00000270202/EFO_1000209</t>
+  </si>
+  <si>
+    <t>/evidence/ENSG00000286441/EFO_1000177</t>
+  </si>
+  <si>
+    <t>/evidence/ENSG00000237238/EFO_1000512</t>
+  </si>
+  <si>
+    <t>/evidence/ENSG00000188783/MONDO_0016693</t>
+  </si>
+  <si>
+    <t>/evidence/ENSG00000242768/EFO_0002939</t>
+  </si>
+  <si>
+    <t>/evidence/ENSG00000277661/EFO_1000026</t>
+  </si>
+  <si>
+    <t>/evidence/ENSG00000236504/MONDO_0022963</t>
+  </si>
+  <si>
+    <t>/evidence/ENSG00000004961/MONDO_0008978</t>
+  </si>
+  <si>
+    <t>/evidence/ENSG00000254174/EFO_0000174</t>
+  </si>
+  <si>
+    <t>/evidence/ENSG00000248126/EFO_0005784</t>
+  </si>
+  <si>
+    <t>/evidence/ENSG00000226386/MONDO_0016680</t>
+  </si>
+  <si>
+    <t>/evidence/ENSG00000264964/MONDO_0022963</t>
+  </si>
+  <si>
+    <t>/evidence/ENSG00000183963/EFO_0002939</t>
+  </si>
+  <si>
+    <t>/evidence/ENSG00000180386/MONDO_0019404</t>
+  </si>
+  <si>
+    <t>/evidence/ENSG00000286688/MONDO_0002601</t>
+  </si>
+  <si>
+    <t>/evidence/ENSG00000120341/EFO_1002008</t>
   </si>
   <si>
     <t>ENSG00000097007</t>
@@ -2166,109 +1806,109 @@
     <t>ENSG00000135903</t>
   </si>
   <si>
-    <t>ENSG00000102967</t>
-  </si>
-  <si>
-    <t>ENSG00000264765</t>
-  </si>
-  <si>
-    <t>ENSG00000203995</t>
-  </si>
-  <si>
-    <t>ENSG00000253772</t>
-  </si>
-  <si>
-    <t>ENSG00000238405</t>
-  </si>
-  <si>
-    <t>ENSG00000124299</t>
-  </si>
-  <si>
-    <t>ENSG00000172780</t>
-  </si>
-  <si>
-    <t>ENSG00000262339</t>
-  </si>
-  <si>
-    <t>ENSG00000261431</t>
-  </si>
-  <si>
-    <t>ENSG00000284952</t>
-  </si>
-  <si>
-    <t>ENSG00000286076</t>
-  </si>
-  <si>
-    <t>ENSG00000229001</t>
-  </si>
-  <si>
-    <t>ENSG00000229671</t>
-  </si>
-  <si>
-    <t>ENSG00000169067</t>
-  </si>
-  <si>
-    <t>ENSG00000287971</t>
-  </si>
-  <si>
-    <t>ENSG00000280670</t>
-  </si>
-  <si>
-    <t>ENSG00000227757</t>
-  </si>
-  <si>
-    <t>ENSG00000234511</t>
-  </si>
-  <si>
-    <t>ENSG00000288022</t>
-  </si>
-  <si>
-    <t>ENSG00000248323</t>
-  </si>
-  <si>
-    <t>ENSG00000231253</t>
-  </si>
-  <si>
-    <t>ENSG00000273402</t>
-  </si>
-  <si>
-    <t>ENSG00000272428</t>
-  </si>
-  <si>
-    <t>ENSG00000256582</t>
-  </si>
-  <si>
-    <t>ENSG00000168903</t>
-  </si>
-  <si>
-    <t>ENSG00000226724</t>
-  </si>
-  <si>
-    <t>ENSG00000189007</t>
-  </si>
-  <si>
-    <t>ENSG00000224286</t>
-  </si>
-  <si>
-    <t>ENSG00000231530</t>
-  </si>
-  <si>
-    <t>ENSG00000184905</t>
-  </si>
-  <si>
-    <t>ENSG00000239212</t>
-  </si>
-  <si>
-    <t>ENSG00000239323</t>
-  </si>
-  <si>
-    <t>ENSG00000130023</t>
-  </si>
-  <si>
-    <t>ENSG00000095951</t>
-  </si>
-  <si>
-    <t>ENSG00000276809</t>
+    <t>ENSG00000276261</t>
+  </si>
+  <si>
+    <t>ENSG00000183324</t>
+  </si>
+  <si>
+    <t>ENSG00000237761</t>
+  </si>
+  <si>
+    <t>ENSG00000126107</t>
+  </si>
+  <si>
+    <t>ENSG00000221697</t>
+  </si>
+  <si>
+    <t>ENSG00000143933</t>
+  </si>
+  <si>
+    <t>ENSG00000272823</t>
+  </si>
+  <si>
+    <t>ENSG00000251161</t>
+  </si>
+  <si>
+    <t>ENSG00000143207</t>
+  </si>
+  <si>
+    <t>ENSG00000102038</t>
+  </si>
+  <si>
+    <t>ENSG00000273998</t>
+  </si>
+  <si>
+    <t>ENSG00000279354</t>
+  </si>
+  <si>
+    <t>ENSG00000114023</t>
+  </si>
+  <si>
+    <t>ENSG00000160917</t>
+  </si>
+  <si>
+    <t>ENSG00000147174</t>
+  </si>
+  <si>
+    <t>ENSG00000212545</t>
+  </si>
+  <si>
+    <t>ENSG00000250899</t>
+  </si>
+  <si>
+    <t>ENSG00000255528</t>
+  </si>
+  <si>
+    <t>ENSG00000250192</t>
+  </si>
+  <si>
+    <t>ENSG00000270202</t>
+  </si>
+  <si>
+    <t>ENSG00000286441</t>
+  </si>
+  <si>
+    <t>ENSG00000237238</t>
+  </si>
+  <si>
+    <t>ENSG00000188783</t>
+  </si>
+  <si>
+    <t>ENSG00000242768</t>
+  </si>
+  <si>
+    <t>ENSG00000277661</t>
+  </si>
+  <si>
+    <t>ENSG00000236504</t>
+  </si>
+  <si>
+    <t>ENSG00000004961</t>
+  </si>
+  <si>
+    <t>ENSG00000254174</t>
+  </si>
+  <si>
+    <t>ENSG00000248126</t>
+  </si>
+  <si>
+    <t>ENSG00000226386</t>
+  </si>
+  <si>
+    <t>ENSG00000264964</t>
+  </si>
+  <si>
+    <t>ENSG00000183963</t>
+  </si>
+  <si>
+    <t>ENSG00000180386</t>
+  </si>
+  <si>
+    <t>ENSG00000286688</t>
+  </si>
+  <si>
+    <t>ENSG00000120341</t>
   </si>
   <si>
     <t>ABL1</t>
@@ -2277,67 +1917,64 @@
     <t>PAX3</t>
   </si>
   <si>
-    <t>DHODH</t>
-  </si>
-  <si>
-    <t>ZYG11A</t>
-  </si>
-  <si>
-    <t>RNA5SP311</t>
-  </si>
-  <si>
-    <t>PEPD</t>
-  </si>
-  <si>
-    <t>RAB43</t>
-  </si>
-  <si>
-    <t>DHX35-DT</t>
-  </si>
-  <si>
-    <t>ACTBP14</t>
-  </si>
-  <si>
-    <t>LINC01150</t>
-  </si>
-  <si>
-    <t>ACTBL2</t>
-  </si>
-  <si>
-    <t>CCDC163</t>
-  </si>
-  <si>
-    <t>C5orf58</t>
-  </si>
-  <si>
-    <t>LUCAT1</t>
-  </si>
-  <si>
-    <t>LINC01640</t>
-  </si>
-  <si>
-    <t>LINC02390</t>
-  </si>
-  <si>
-    <t>BTNL3</t>
-  </si>
-  <si>
-    <t>ADAT2</t>
-  </si>
-  <si>
-    <t>LINC01142</t>
-  </si>
-  <si>
-    <t>TCEAL2</t>
-  </si>
-  <si>
-    <t>RPL6P7</t>
-  </si>
-  <si>
-    <t>ERMARD</t>
-  </si>
-  <si>
-    <t>HIVEP1</t>
+    <t>REC114</t>
+  </si>
+  <si>
+    <t>HECTD3</t>
+  </si>
+  <si>
+    <t>MIR1275</t>
+  </si>
+  <si>
+    <t>CALM2</t>
+  </si>
+  <si>
+    <t>COP1</t>
+  </si>
+  <si>
+    <t>SMARCA1</t>
+  </si>
+  <si>
+    <t>FAM162A</t>
+  </si>
+  <si>
+    <t>CPSF4</t>
+  </si>
+  <si>
+    <t>GCNA</t>
+  </si>
+  <si>
+    <t>RNU6-337P</t>
+  </si>
+  <si>
+    <t>BMS1P10</t>
+  </si>
+  <si>
+    <t>PRELP</t>
+  </si>
+  <si>
+    <t>OR2W1-AS1</t>
+  </si>
+  <si>
+    <t>HCCS</t>
+  </si>
+  <si>
+    <t>IGHV1-12</t>
+  </si>
+  <si>
+    <t>PARD3-DT</t>
+  </si>
+  <si>
+    <t>TWSG1-DT</t>
+  </si>
+  <si>
+    <t>SMTN</t>
+  </si>
+  <si>
+    <t>KRTAP9-7</t>
+  </si>
+  <si>
+    <t>SEC16B</t>
   </si>
   <si>
     <t>category</t>
@@ -2454,18 +2091,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -2495,15 +2126,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2845,22 +2473,22 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="40.7265625" customWidth="1"/>
+    <col min="2" max="2" width="20.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2868,7 +2496,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2876,7 +2504,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2884,7 +2512,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2892,7 +2520,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2900,7 +2528,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2908,15 +2536,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>45057.468883687558</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>45071.679765691937</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2933,20 +2561,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -2963,7 +2582,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -2980,7 +2599,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -2997,7 +2616,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -3014,7 +2633,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -3031,7 +2650,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -3048,7 +2667,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -3065,7 +2684,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -3082,7 +2701,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -3099,7 +2718,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -3116,7 +2735,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -3133,7 +2752,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -3150,7 +2769,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -3167,7 +2786,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -3184,7 +2803,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -3201,7 +2820,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -3218,7 +2837,7 @@
         <v>2428</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -3235,7 +2854,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -3252,7 +2871,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -3269,7 +2888,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -3286,7 +2905,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -3303,7 +2922,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -3320,7 +2939,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -3337,7 +2956,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -3354,7 +2973,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -3371,7 +2990,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -3388,7 +3007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -3405,7 +3024,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -3422,7 +3041,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -3439,7 +3058,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -3456,7 +3075,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -3473,7 +3092,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>47</v>
       </c>
@@ -3490,7 +3109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -3507,7 +3126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>49</v>
       </c>
@@ -3524,7 +3143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>50</v>
       </c>
@@ -3541,7 +3160,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>51</v>
       </c>
@@ -3558,7 +3177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -3575,7 +3194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>53</v>
       </c>
@@ -3592,7 +3211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -3609,7 +3228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>55</v>
       </c>
@@ -3626,7 +3245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -3652,28 +3271,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.28515625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -3689,10 +3293,10 @@
       <c r="E1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>138</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -3710,14 +3314,14 @@
       <c r="L1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>146</v>
       </c>
@@ -3761,7 +3365,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>147</v>
       </c>
@@ -3805,7 +3409,7 @@
         <v>6455</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>148</v>
       </c>
@@ -3849,7 +3453,7 @@
         <v>19274</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>149</v>
       </c>
@@ -3893,7 +3497,7 @@
         <v>3920</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>150</v>
       </c>
@@ -3937,7 +3541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>151</v>
       </c>
@@ -3981,7 +3585,7 @@
         <v>23212</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>152</v>
       </c>
@@ -4025,7 +3629,7 @@
         <v>6738</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>153</v>
       </c>
@@ -4069,7 +3673,7 @@
         <v>3002</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>154</v>
       </c>
@@ -4113,7 +3717,7 @@
         <v>48018</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>155</v>
       </c>
@@ -4157,7 +3761,7 @@
         <v>40415</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>156</v>
       </c>
@@ -4201,7 +3805,7 @@
         <v>19855</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>157</v>
       </c>
@@ -4245,7 +3849,7 @@
         <v>21268</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>158</v>
       </c>
@@ -4289,7 +3893,7 @@
         <v>14343</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>159</v>
       </c>
@@ -4333,7 +3937,7 @@
         <v>29224</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>160</v>
       </c>
@@ -4377,7 +3981,7 @@
         <v>3414</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>161</v>
       </c>
@@ -4421,7 +4025,7 @@
         <v>13629</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>162</v>
       </c>
@@ -4465,7 +4069,7 @@
         <v>13569</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>163</v>
       </c>
@@ -4509,7 +4113,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>164</v>
       </c>
@@ -4553,7 +4157,7 @@
         <v>8464</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>165</v>
       </c>
@@ -4597,7 +4201,7 @@
         <v>10209</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>166</v>
       </c>
@@ -4641,7 +4245,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>167</v>
       </c>
@@ -4685,7 +4289,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>168</v>
       </c>
@@ -4729,7 +4333,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>169</v>
       </c>
@@ -4773,7 +4377,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>170</v>
       </c>
@@ -4817,7 +4421,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>171</v>
       </c>
@@ -4861,7 +4465,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>172</v>
       </c>
@@ -4905,7 +4509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>173</v>
       </c>
@@ -4949,7 +4553,7 @@
         <v>13936</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>174</v>
       </c>
@@ -4993,7 +4597,7 @@
         <v>4794</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>175</v>
       </c>
@@ -5037,7 +4641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>176</v>
       </c>
@@ -5081,7 +4685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>177</v>
       </c>
@@ -5125,7 +4729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>178</v>
       </c>
@@ -5169,7 +4773,7 @@
         <v>15021</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>179</v>
       </c>
@@ -5213,7 +4817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>180</v>
       </c>
@@ -5257,7 +4861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>181</v>
       </c>
@@ -5301,7 +4905,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>182</v>
       </c>
@@ -5345,7 +4949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>183</v>
       </c>
@@ -5389,7 +4993,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>184</v>
       </c>
@@ -5433,7 +5037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>185</v>
       </c>
@@ -5477,7 +5081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>186</v>
       </c>
@@ -5528,19 +5132,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D110"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="78.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -5554,1529 +5152,1109 @@
         <v>246</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>247</v>
       </c>
       <c r="B2" t="s">
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="C2" t="s">
-        <v>465</v>
+        <v>405</v>
       </c>
       <c r="D2">
-        <v>5618</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>248</v>
       </c>
       <c r="B3" t="s">
-        <v>357</v>
+        <v>327</v>
       </c>
       <c r="C3" t="s">
-        <v>466</v>
+        <v>406</v>
       </c>
       <c r="D3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>249</v>
       </c>
       <c r="B4" t="s">
-        <v>358</v>
+        <v>328</v>
       </c>
       <c r="C4" t="s">
-        <v>467</v>
+        <v>407</v>
       </c>
       <c r="D4">
-        <v>1174</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>250</v>
       </c>
       <c r="B5" t="s">
-        <v>359</v>
+        <v>329</v>
       </c>
       <c r="C5" t="s">
-        <v>468</v>
+        <v>408</v>
       </c>
       <c r="D5">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7751</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>251</v>
       </c>
       <c r="B6" t="s">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="C6" t="s">
-        <v>469</v>
+        <v>409</v>
       </c>
       <c r="D6">
-        <v>7751</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>252</v>
       </c>
       <c r="B7" t="s">
-        <v>361</v>
+        <v>331</v>
       </c>
       <c r="C7" t="s">
-        <v>470</v>
+        <v>410</v>
       </c>
       <c r="D7">
-        <v>4947</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>253</v>
       </c>
       <c r="B8" t="s">
-        <v>362</v>
+        <v>332</v>
       </c>
       <c r="C8" t="s">
-        <v>471</v>
+        <v>411</v>
       </c>
       <c r="D8">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>254</v>
       </c>
       <c r="B9" t="s">
-        <v>363</v>
+        <v>333</v>
       </c>
       <c r="C9" t="s">
-        <v>472</v>
+        <v>412</v>
       </c>
       <c r="D9">
-        <v>2169</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>255</v>
       </c>
       <c r="B10" t="s">
-        <v>364</v>
+        <v>334</v>
       </c>
       <c r="C10" t="s">
-        <v>473</v>
+        <v>413</v>
       </c>
       <c r="D10">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>256</v>
       </c>
       <c r="B11" t="s">
-        <v>365</v>
+        <v>335</v>
       </c>
       <c r="C11" t="s">
-        <v>474</v>
+        <v>414</v>
       </c>
       <c r="D11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>257</v>
       </c>
       <c r="B12" t="s">
-        <v>366</v>
+        <v>336</v>
       </c>
       <c r="C12" t="s">
-        <v>475</v>
+        <v>415</v>
       </c>
       <c r="D12">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>258</v>
       </c>
       <c r="B13" t="s">
-        <v>367</v>
+        <v>337</v>
       </c>
       <c r="C13" t="s">
-        <v>476</v>
+        <v>416</v>
       </c>
       <c r="D13">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>259</v>
       </c>
       <c r="B14" t="s">
-        <v>368</v>
+        <v>338</v>
       </c>
       <c r="C14" t="s">
-        <v>477</v>
+        <v>417</v>
       </c>
       <c r="D14">
-        <v>2632</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>260</v>
       </c>
       <c r="B15" t="s">
-        <v>369</v>
+        <v>339</v>
       </c>
       <c r="C15" t="s">
-        <v>478</v>
+        <v>418</v>
       </c>
       <c r="D15">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>261</v>
       </c>
       <c r="B16" t="s">
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="C16" t="s">
-        <v>479</v>
+        <v>419</v>
       </c>
       <c r="D16">
-        <v>1383</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>262</v>
       </c>
       <c r="B17" t="s">
-        <v>371</v>
+        <v>341</v>
       </c>
       <c r="C17" t="s">
-        <v>480</v>
+        <v>420</v>
       </c>
       <c r="D17">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>263</v>
       </c>
       <c r="B18" t="s">
-        <v>372</v>
+        <v>342</v>
       </c>
       <c r="C18" t="s">
-        <v>481</v>
+        <v>421</v>
       </c>
       <c r="D18">
-        <v>9904</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>264</v>
       </c>
       <c r="B19" t="s">
-        <v>373</v>
+        <v>343</v>
       </c>
       <c r="C19" t="s">
-        <v>482</v>
+        <v>422</v>
       </c>
       <c r="D19">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>265</v>
       </c>
       <c r="B20" t="s">
-        <v>374</v>
+        <v>344</v>
       </c>
       <c r="C20" t="s">
-        <v>483</v>
+        <v>423</v>
       </c>
       <c r="D20">
-        <v>1894</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>266</v>
       </c>
       <c r="B21" t="s">
-        <v>375</v>
+        <v>345</v>
       </c>
       <c r="C21" t="s">
-        <v>484</v>
+        <v>424</v>
       </c>
       <c r="D21">
-        <v>6188</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>267</v>
       </c>
       <c r="B22" t="s">
-        <v>376</v>
+        <v>346</v>
       </c>
       <c r="C22" t="s">
-        <v>485</v>
+        <v>425</v>
       </c>
       <c r="D22">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>268</v>
       </c>
       <c r="B23" t="s">
-        <v>377</v>
+        <v>347</v>
       </c>
       <c r="C23" t="s">
-        <v>486</v>
+        <v>426</v>
       </c>
       <c r="D23">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>269</v>
       </c>
       <c r="B24" t="s">
-        <v>378</v>
+        <v>348</v>
       </c>
       <c r="C24" t="s">
-        <v>487</v>
+        <v>427</v>
       </c>
       <c r="D24">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>270</v>
       </c>
       <c r="B25" t="s">
-        <v>379</v>
+        <v>349</v>
       </c>
       <c r="C25" t="s">
-        <v>488</v>
+        <v>428</v>
       </c>
       <c r="D25">
-        <v>2983</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>271</v>
       </c>
       <c r="B26" t="s">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="C26" t="s">
-        <v>489</v>
+        <v>429</v>
       </c>
       <c r="D26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>272</v>
       </c>
       <c r="B27" t="s">
-        <v>381</v>
+        <v>351</v>
       </c>
       <c r="C27" t="s">
-        <v>490</v>
+        <v>430</v>
       </c>
       <c r="D27">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>273</v>
       </c>
       <c r="B28" t="s">
-        <v>382</v>
+        <v>352</v>
       </c>
       <c r="C28" t="s">
-        <v>491</v>
+        <v>431</v>
       </c>
       <c r="D28">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4299</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>274</v>
       </c>
       <c r="B29" t="s">
-        <v>383</v>
+        <v>353</v>
       </c>
       <c r="C29" t="s">
-        <v>492</v>
+        <v>432</v>
       </c>
       <c r="D29">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>275</v>
       </c>
       <c r="B30" t="s">
-        <v>384</v>
+        <v>354</v>
       </c>
       <c r="C30" t="s">
-        <v>493</v>
+        <v>433</v>
       </c>
       <c r="D30">
-        <v>2954</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>276</v>
       </c>
       <c r="B31" t="s">
-        <v>385</v>
+        <v>355</v>
       </c>
       <c r="C31" t="s">
-        <v>494</v>
+        <v>434</v>
       </c>
       <c r="D31">
-        <v>2631</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>277</v>
       </c>
       <c r="B32" t="s">
-        <v>386</v>
+        <v>356</v>
       </c>
       <c r="C32" t="s">
-        <v>495</v>
+        <v>435</v>
       </c>
       <c r="D32">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>278</v>
       </c>
       <c r="B33" t="s">
-        <v>387</v>
+        <v>357</v>
       </c>
       <c r="C33" t="s">
-        <v>496</v>
+        <v>436</v>
       </c>
       <c r="D33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>279</v>
       </c>
       <c r="B34" t="s">
-        <v>388</v>
+        <v>358</v>
       </c>
       <c r="C34" t="s">
-        <v>497</v>
+        <v>437</v>
       </c>
       <c r="D34">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>280</v>
       </c>
       <c r="B35" t="s">
-        <v>389</v>
+        <v>359</v>
       </c>
       <c r="C35" t="s">
-        <v>498</v>
+        <v>438</v>
       </c>
       <c r="D35">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>281</v>
       </c>
       <c r="B36" t="s">
-        <v>390</v>
+        <v>360</v>
       </c>
       <c r="C36" t="s">
-        <v>499</v>
+        <v>439</v>
       </c>
       <c r="D36">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>282</v>
       </c>
       <c r="B37" t="s">
-        <v>391</v>
+        <v>361</v>
       </c>
       <c r="C37" t="s">
-        <v>500</v>
+        <v>440</v>
       </c>
       <c r="D37">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>283</v>
       </c>
       <c r="B38" t="s">
-        <v>392</v>
+        <v>362</v>
       </c>
       <c r="C38" t="s">
-        <v>501</v>
+        <v>441</v>
       </c>
       <c r="D38">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>284</v>
       </c>
       <c r="B39" t="s">
-        <v>393</v>
+        <v>363</v>
       </c>
       <c r="C39" t="s">
-        <v>502</v>
+        <v>442</v>
       </c>
       <c r="D39">
-        <v>4299</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>285</v>
       </c>
       <c r="B40" t="s">
-        <v>394</v>
+        <v>364</v>
       </c>
       <c r="C40" t="s">
-        <v>503</v>
+        <v>443</v>
       </c>
       <c r="D40">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>286</v>
       </c>
       <c r="B41" t="s">
-        <v>395</v>
+        <v>365</v>
       </c>
       <c r="C41" t="s">
-        <v>504</v>
+        <v>444</v>
       </c>
       <c r="D41">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>287</v>
       </c>
       <c r="B42" t="s">
-        <v>396</v>
+        <v>366</v>
       </c>
       <c r="C42" t="s">
-        <v>505</v>
+        <v>445</v>
       </c>
       <c r="D42">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>288</v>
       </c>
       <c r="B43" t="s">
-        <v>397</v>
+        <v>367</v>
       </c>
       <c r="C43" t="s">
-        <v>506</v>
+        <v>446</v>
       </c>
       <c r="D43">
-        <v>1838</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>289</v>
       </c>
       <c r="B44" t="s">
-        <v>398</v>
+        <v>368</v>
       </c>
       <c r="C44" t="s">
-        <v>507</v>
+        <v>447</v>
       </c>
       <c r="D44">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>290</v>
       </c>
       <c r="B45" t="s">
-        <v>399</v>
+        <v>369</v>
       </c>
       <c r="C45" t="s">
-        <v>508</v>
+        <v>448</v>
       </c>
       <c r="D45">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5068</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>291</v>
       </c>
       <c r="B46" t="s">
-        <v>400</v>
+        <v>370</v>
       </c>
       <c r="C46" t="s">
-        <v>509</v>
+        <v>449</v>
       </c>
       <c r="D46">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>292</v>
       </c>
       <c r="B47" t="s">
-        <v>401</v>
+        <v>371</v>
       </c>
       <c r="C47" t="s">
-        <v>510</v>
+        <v>450</v>
       </c>
       <c r="D47">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>293</v>
       </c>
       <c r="B48" t="s">
-        <v>402</v>
+        <v>372</v>
       </c>
       <c r="C48" t="s">
-        <v>511</v>
+        <v>451</v>
       </c>
       <c r="D48">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>294</v>
       </c>
       <c r="B49" t="s">
-        <v>403</v>
+        <v>373</v>
       </c>
       <c r="C49" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
       <c r="D49">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>295</v>
       </c>
       <c r="B50" t="s">
-        <v>404</v>
+        <v>374</v>
       </c>
       <c r="C50" t="s">
-        <v>513</v>
+        <v>453</v>
       </c>
       <c r="D50">
-        <v>1823</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>296</v>
       </c>
       <c r="B51" t="s">
-        <v>405</v>
+        <v>375</v>
       </c>
       <c r="C51" t="s">
-        <v>514</v>
+        <v>454</v>
       </c>
       <c r="D51">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>297</v>
       </c>
       <c r="B52" t="s">
-        <v>406</v>
+        <v>376</v>
       </c>
       <c r="C52" t="s">
-        <v>515</v>
+        <v>455</v>
       </c>
       <c r="D52">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4249</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>298</v>
       </c>
       <c r="B53" t="s">
-        <v>407</v>
+        <v>377</v>
       </c>
       <c r="C53" t="s">
-        <v>516</v>
+        <v>456</v>
       </c>
       <c r="D53">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>299</v>
       </c>
       <c r="B54" t="s">
-        <v>408</v>
+        <v>378</v>
       </c>
       <c r="C54" t="s">
-        <v>517</v>
+        <v>457</v>
       </c>
       <c r="D54">
-        <v>3103</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3752</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>300</v>
       </c>
       <c r="B55" t="s">
-        <v>409</v>
+        <v>379</v>
       </c>
       <c r="C55" t="s">
-        <v>518</v>
+        <v>458</v>
       </c>
       <c r="D55">
-        <v>1757</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>301</v>
       </c>
       <c r="B56" t="s">
-        <v>410</v>
+        <v>380</v>
       </c>
       <c r="C56" t="s">
-        <v>519</v>
+        <v>459</v>
       </c>
       <c r="D56">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>302</v>
       </c>
       <c r="B57" t="s">
-        <v>411</v>
+        <v>381</v>
       </c>
       <c r="C57" t="s">
-        <v>520</v>
+        <v>460</v>
       </c>
       <c r="D57">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5544</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>303</v>
       </c>
       <c r="B58" t="s">
-        <v>412</v>
+        <v>382</v>
       </c>
       <c r="C58" t="s">
-        <v>521</v>
+        <v>461</v>
       </c>
       <c r="D58">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>304</v>
       </c>
       <c r="B59" t="s">
-        <v>413</v>
+        <v>383</v>
       </c>
       <c r="C59" t="s">
-        <v>522</v>
+        <v>462</v>
       </c>
       <c r="D59">
-        <v>5068</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>305</v>
       </c>
       <c r="B60" t="s">
-        <v>414</v>
+        <v>384</v>
       </c>
       <c r="C60" t="s">
-        <v>523</v>
+        <v>463</v>
       </c>
       <c r="D60">
-        <v>2077</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>306</v>
       </c>
       <c r="B61" t="s">
-        <v>415</v>
+        <v>385</v>
       </c>
       <c r="C61" t="s">
-        <v>524</v>
+        <v>464</v>
       </c>
       <c r="D61">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>307</v>
       </c>
       <c r="B62" t="s">
-        <v>416</v>
+        <v>386</v>
       </c>
       <c r="C62" t="s">
-        <v>525</v>
+        <v>465</v>
       </c>
       <c r="D62">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>308</v>
       </c>
       <c r="B63" t="s">
-        <v>417</v>
+        <v>387</v>
       </c>
       <c r="C63" t="s">
-        <v>526</v>
+        <v>466</v>
       </c>
       <c r="D63">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6848</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>309</v>
       </c>
       <c r="B64" t="s">
-        <v>418</v>
+        <v>388</v>
       </c>
       <c r="C64" t="s">
-        <v>527</v>
+        <v>467</v>
       </c>
       <c r="D64">
-        <v>2535</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2866</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>310</v>
       </c>
       <c r="B65" t="s">
-        <v>419</v>
+        <v>389</v>
       </c>
       <c r="C65" t="s">
-        <v>528</v>
+        <v>468</v>
       </c>
       <c r="D65">
-        <v>3499</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5684</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>311</v>
       </c>
       <c r="B66" t="s">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="C66" t="s">
-        <v>529</v>
+        <v>469</v>
       </c>
       <c r="D66">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>312</v>
       </c>
       <c r="B67" t="s">
-        <v>421</v>
+        <v>391</v>
       </c>
       <c r="C67" t="s">
-        <v>530</v>
+        <v>470</v>
       </c>
       <c r="D67">
-        <v>1679</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>313</v>
       </c>
       <c r="B68" t="s">
-        <v>422</v>
+        <v>392</v>
       </c>
       <c r="C68" t="s">
-        <v>531</v>
+        <v>471</v>
       </c>
       <c r="D68">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>314</v>
       </c>
       <c r="B69" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="C69" t="s">
-        <v>532</v>
+        <v>472</v>
       </c>
       <c r="D69">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>315</v>
       </c>
       <c r="B70" t="s">
-        <v>424</v>
+        <v>394</v>
       </c>
       <c r="C70" t="s">
-        <v>533</v>
+        <v>473</v>
       </c>
       <c r="D70">
-        <v>4249</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>316</v>
       </c>
       <c r="B71" t="s">
-        <v>425</v>
+        <v>395</v>
       </c>
       <c r="C71" t="s">
-        <v>534</v>
+        <v>474</v>
       </c>
       <c r="D71">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>317</v>
       </c>
       <c r="B72" t="s">
-        <v>426</v>
+        <v>396</v>
       </c>
       <c r="C72" t="s">
-        <v>535</v>
+        <v>475</v>
       </c>
       <c r="D72">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7109</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>318</v>
       </c>
       <c r="B73" t="s">
-        <v>427</v>
+        <v>397</v>
       </c>
       <c r="C73" t="s">
-        <v>536</v>
+        <v>476</v>
       </c>
       <c r="D73">
-        <v>3752</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7008</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>319</v>
       </c>
       <c r="B74" t="s">
-        <v>428</v>
+        <v>398</v>
       </c>
       <c r="C74" t="s">
-        <v>537</v>
+        <v>477</v>
       </c>
       <c r="D74">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>320</v>
       </c>
       <c r="B75" t="s">
-        <v>429</v>
+        <v>399</v>
       </c>
       <c r="C75" t="s">
-        <v>538</v>
+        <v>478</v>
       </c>
       <c r="D75">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>321</v>
       </c>
       <c r="B76" t="s">
-        <v>430</v>
+        <v>400</v>
       </c>
       <c r="C76" t="s">
-        <v>539</v>
+        <v>479</v>
       </c>
       <c r="D76">
-        <v>2322</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7207</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>322</v>
       </c>
       <c r="B77" t="s">
-        <v>431</v>
+        <v>401</v>
       </c>
       <c r="C77" t="s">
-        <v>540</v>
+        <v>480</v>
       </c>
       <c r="D77">
-        <v>3649</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>323</v>
       </c>
       <c r="B78" t="s">
-        <v>432</v>
+        <v>402</v>
       </c>
       <c r="C78" t="s">
-        <v>541</v>
+        <v>481</v>
       </c>
       <c r="D78">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>324</v>
       </c>
       <c r="B79" t="s">
-        <v>433</v>
+        <v>403</v>
       </c>
       <c r="C79" t="s">
-        <v>542</v>
+        <v>482</v>
       </c>
       <c r="D79">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>325</v>
       </c>
       <c r="B80" t="s">
-        <v>434</v>
+        <v>404</v>
       </c>
       <c r="C80" t="s">
-        <v>543</v>
+        <v>483</v>
       </c>
       <c r="D80">
-        <v>5544</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>326</v>
-      </c>
-      <c r="B81" t="s">
-        <v>435</v>
-      </c>
-      <c r="C81" t="s">
-        <v>544</v>
-      </c>
-      <c r="D81">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>327</v>
-      </c>
-      <c r="B82" t="s">
-        <v>436</v>
-      </c>
-      <c r="C82" t="s">
-        <v>545</v>
-      </c>
-      <c r="D82">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>328</v>
-      </c>
-      <c r="B83" t="s">
-        <v>437</v>
-      </c>
-      <c r="C83" t="s">
-        <v>546</v>
-      </c>
-      <c r="D83">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>329</v>
-      </c>
-      <c r="B84" t="s">
-        <v>438</v>
-      </c>
-      <c r="C84" t="s">
-        <v>547</v>
-      </c>
-      <c r="D84">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>330</v>
-      </c>
-      <c r="B85" t="s">
-        <v>439</v>
-      </c>
-      <c r="C85" t="s">
-        <v>548</v>
-      </c>
-      <c r="D85">
-        <v>3145</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>331</v>
-      </c>
-      <c r="B86" t="s">
-        <v>440</v>
-      </c>
-      <c r="C86" t="s">
-        <v>549</v>
-      </c>
-      <c r="D86">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>332</v>
-      </c>
-      <c r="B87" t="s">
-        <v>441</v>
-      </c>
-      <c r="C87" t="s">
-        <v>550</v>
-      </c>
-      <c r="D87">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>333</v>
-      </c>
-      <c r="B88" t="s">
-        <v>442</v>
-      </c>
-      <c r="C88" t="s">
-        <v>551</v>
-      </c>
-      <c r="D88">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>334</v>
-      </c>
-      <c r="B89" t="s">
-        <v>443</v>
-      </c>
-      <c r="C89" t="s">
-        <v>552</v>
-      </c>
-      <c r="D89">
-        <v>6848</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>335</v>
-      </c>
-      <c r="B90" t="s">
-        <v>444</v>
-      </c>
-      <c r="C90" t="s">
-        <v>553</v>
-      </c>
-      <c r="D90">
-        <v>2866</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>336</v>
-      </c>
-      <c r="B91" t="s">
-        <v>445</v>
-      </c>
-      <c r="C91" t="s">
-        <v>554</v>
-      </c>
-      <c r="D91">
-        <v>5684</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>337</v>
-      </c>
-      <c r="B92" t="s">
-        <v>446</v>
-      </c>
-      <c r="C92" t="s">
-        <v>555</v>
-      </c>
-      <c r="D92">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>338</v>
-      </c>
-      <c r="B93" t="s">
-        <v>447</v>
-      </c>
-      <c r="C93" t="s">
-        <v>556</v>
-      </c>
-      <c r="D93">
-        <v>1444</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>339</v>
-      </c>
-      <c r="B94" t="s">
-        <v>448</v>
-      </c>
-      <c r="C94" t="s">
-        <v>557</v>
-      </c>
-      <c r="D94">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>340</v>
-      </c>
-      <c r="B95" t="s">
-        <v>449</v>
-      </c>
-      <c r="C95" t="s">
-        <v>558</v>
-      </c>
-      <c r="D95">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>341</v>
-      </c>
-      <c r="B96" t="s">
-        <v>450</v>
-      </c>
-      <c r="C96" t="s">
-        <v>559</v>
-      </c>
-      <c r="D96">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>342</v>
-      </c>
-      <c r="B97" t="s">
-        <v>451</v>
-      </c>
-      <c r="C97" t="s">
-        <v>560</v>
-      </c>
-      <c r="D97">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>343</v>
-      </c>
-      <c r="B98" t="s">
-        <v>452</v>
-      </c>
-      <c r="C98" t="s">
-        <v>561</v>
-      </c>
-      <c r="D98">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>344</v>
-      </c>
-      <c r="B99" t="s">
-        <v>453</v>
-      </c>
-      <c r="C99" t="s">
-        <v>562</v>
-      </c>
-      <c r="D99">
-        <v>7109</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>345</v>
-      </c>
-      <c r="B100" t="s">
-        <v>454</v>
-      </c>
-      <c r="C100" t="s">
-        <v>563</v>
-      </c>
-      <c r="D100">
-        <v>7008</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>346</v>
-      </c>
-      <c r="B101" t="s">
-        <v>455</v>
-      </c>
-      <c r="C101" t="s">
-        <v>564</v>
-      </c>
-      <c r="D101">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>347</v>
-      </c>
-      <c r="B102" t="s">
-        <v>456</v>
-      </c>
-      <c r="C102" t="s">
-        <v>565</v>
-      </c>
-      <c r="D102">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>348</v>
-      </c>
-      <c r="B103" t="s">
-        <v>457</v>
-      </c>
-      <c r="C103" t="s">
-        <v>566</v>
-      </c>
-      <c r="D103">
-        <v>7475</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>349</v>
-      </c>
-      <c r="B104" t="s">
-        <v>458</v>
-      </c>
-      <c r="C104" t="s">
-        <v>567</v>
-      </c>
-      <c r="D104">
-        <v>7207</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>350</v>
-      </c>
-      <c r="B105" t="s">
-        <v>459</v>
-      </c>
-      <c r="C105" t="s">
-        <v>568</v>
-      </c>
-      <c r="D105">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>351</v>
-      </c>
-      <c r="B106" t="s">
-        <v>460</v>
-      </c>
-      <c r="C106" t="s">
-        <v>569</v>
-      </c>
-      <c r="D106">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>352</v>
-      </c>
-      <c r="B107" t="s">
-        <v>461</v>
-      </c>
-      <c r="C107" t="s">
-        <v>570</v>
-      </c>
-      <c r="D107">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>353</v>
-      </c>
-      <c r="B108" t="s">
-        <v>462</v>
-      </c>
-      <c r="C108" t="s">
-        <v>571</v>
-      </c>
-      <c r="D108">
-        <v>4201</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>354</v>
-      </c>
-      <c r="B109" t="s">
-        <v>463</v>
-      </c>
-      <c r="C109" t="s">
-        <v>572</v>
-      </c>
-      <c r="D109">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>355</v>
-      </c>
-      <c r="B110" t="s">
-        <v>464</v>
-      </c>
-      <c r="C110" t="s">
-        <v>573</v>
-      </c>
-      <c r="D110">
         <v>482</v>
       </c>
     </row>
@@ -7087,21 +6265,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D95"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -7111,1323 +6281,903 @@
       <c r="C1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>575</v>
+        <v>485</v>
       </c>
       <c r="B2" t="s">
-        <v>415</v>
+        <v>370</v>
       </c>
       <c r="C2" t="s">
-        <v>524</v>
+        <v>449</v>
       </c>
       <c r="D2" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>576</v>
+        <v>486</v>
       </c>
       <c r="B3" t="s">
-        <v>358</v>
+        <v>327</v>
       </c>
       <c r="C3" t="s">
-        <v>467</v>
+        <v>406</v>
       </c>
       <c r="D3" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>577</v>
+        <v>487</v>
       </c>
       <c r="B4" t="s">
-        <v>375</v>
+        <v>334</v>
       </c>
       <c r="C4" t="s">
-        <v>484</v>
+        <v>413</v>
       </c>
       <c r="D4" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>578</v>
+        <v>488</v>
       </c>
       <c r="B5" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="C5" t="s">
-        <v>481</v>
+        <v>431</v>
       </c>
       <c r="D5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>489</v>
+      </c>
+      <c r="B6" t="s">
+        <v>387</v>
+      </c>
+      <c r="C6" t="s">
+        <v>466</v>
+      </c>
+      <c r="D6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>490</v>
+      </c>
+      <c r="B7" t="s">
+        <v>337</v>
+      </c>
+      <c r="C7" t="s">
+        <v>416</v>
+      </c>
+      <c r="D7" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>579</v>
-      </c>
-      <c r="B6" t="s">
-        <v>366</v>
-      </c>
-      <c r="C6" t="s">
-        <v>475</v>
-      </c>
-      <c r="D6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>580</v>
-      </c>
-      <c r="B7" t="s">
-        <v>393</v>
-      </c>
-      <c r="C7" t="s">
-        <v>502</v>
-      </c>
-      <c r="D7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>581</v>
+        <v>491</v>
       </c>
       <c r="B8" t="s">
-        <v>443</v>
+        <v>365</v>
       </c>
       <c r="C8" t="s">
-        <v>552</v>
+        <v>444</v>
       </c>
       <c r="D8" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>582</v>
+        <v>492</v>
       </c>
       <c r="B9" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="C9" t="s">
-        <v>479</v>
+        <v>437</v>
       </c>
       <c r="D9" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>583</v>
+        <v>493</v>
       </c>
       <c r="B10" t="s">
-        <v>409</v>
+        <v>336</v>
       </c>
       <c r="C10" t="s">
-        <v>518</v>
+        <v>415</v>
       </c>
       <c r="D10" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>584</v>
+        <v>494</v>
       </c>
       <c r="B11" t="s">
-        <v>419</v>
+        <v>376</v>
       </c>
       <c r="C11" t="s">
-        <v>528</v>
+        <v>455</v>
       </c>
       <c r="D11" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>585</v>
+        <v>495</v>
       </c>
       <c r="B12" t="s">
+        <v>328</v>
+      </c>
+      <c r="C12" t="s">
         <v>407</v>
       </c>
-      <c r="C12" t="s">
-        <v>516</v>
-      </c>
       <c r="D12" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>586</v>
+        <v>496</v>
       </c>
       <c r="B13" t="s">
-        <v>439</v>
+        <v>369</v>
       </c>
       <c r="C13" t="s">
-        <v>548</v>
+        <v>448</v>
       </c>
       <c r="D13" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>587</v>
+        <v>497</v>
       </c>
       <c r="B14" t="s">
-        <v>418</v>
+        <v>378</v>
       </c>
       <c r="C14" t="s">
-        <v>527</v>
+        <v>457</v>
       </c>
       <c r="D14" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>588</v>
+        <v>498</v>
       </c>
       <c r="B15" t="s">
-        <v>400</v>
+        <v>353</v>
       </c>
       <c r="C15" t="s">
-        <v>509</v>
+        <v>432</v>
       </c>
       <c r="D15" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>589</v>
+        <v>499</v>
       </c>
       <c r="B16" t="s">
-        <v>369</v>
+        <v>396</v>
       </c>
       <c r="C16" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D16" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>590</v>
+        <v>500</v>
       </c>
       <c r="B17" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="C17" t="s">
-        <v>488</v>
+        <v>465</v>
       </c>
       <c r="D17" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="B18" t="s">
-        <v>457</v>
+        <v>354</v>
       </c>
       <c r="C18" t="s">
-        <v>566</v>
+        <v>433</v>
       </c>
       <c r="D18" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>592</v>
+        <v>502</v>
       </c>
       <c r="B19" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C19" t="s">
-        <v>465</v>
+        <v>430</v>
       </c>
       <c r="D19" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>593</v>
+        <v>503</v>
       </c>
       <c r="B20" t="s">
-        <v>421</v>
+        <v>346</v>
       </c>
       <c r="C20" t="s">
-        <v>530</v>
+        <v>425</v>
       </c>
       <c r="D20" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>594</v>
+        <v>504</v>
       </c>
       <c r="B21" t="s">
-        <v>424</v>
+        <v>349</v>
       </c>
       <c r="C21" t="s">
-        <v>533</v>
+        <v>428</v>
       </c>
       <c r="D21" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>595</v>
+        <v>505</v>
       </c>
       <c r="B22" t="s">
-        <v>359</v>
+        <v>329</v>
       </c>
       <c r="C22" t="s">
+        <v>408</v>
+      </c>
+      <c r="D22" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>506</v>
+      </c>
+      <c r="B23" t="s">
+        <v>344</v>
+      </c>
+      <c r="C23" t="s">
+        <v>423</v>
+      </c>
+      <c r="D23" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>507</v>
+      </c>
+      <c r="B24" t="s">
+        <v>389</v>
+      </c>
+      <c r="C24" t="s">
         <v>468</v>
       </c>
-      <c r="D22" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>596</v>
-      </c>
-      <c r="B23" t="s">
-        <v>413</v>
-      </c>
-      <c r="C23" t="s">
-        <v>522</v>
-      </c>
-      <c r="D23" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>597</v>
-      </c>
-      <c r="B24" t="s">
-        <v>374</v>
-      </c>
-      <c r="C24" t="s">
-        <v>483</v>
-      </c>
       <c r="D24" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>598</v>
+        <v>508</v>
       </c>
       <c r="B25" t="s">
-        <v>427</v>
+        <v>366</v>
       </c>
       <c r="C25" t="s">
-        <v>536</v>
+        <v>445</v>
       </c>
       <c r="D25" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>599</v>
+        <v>509</v>
       </c>
       <c r="B26" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C26" t="s">
-        <v>503</v>
+        <v>470</v>
       </c>
       <c r="D26" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>600</v>
+        <v>510</v>
       </c>
       <c r="B27" t="s">
-        <v>368</v>
+        <v>339</v>
       </c>
       <c r="C27" t="s">
-        <v>477</v>
+        <v>418</v>
       </c>
       <c r="D27" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>601</v>
+        <v>511</v>
       </c>
       <c r="B28" t="s">
-        <v>453</v>
+        <v>362</v>
       </c>
       <c r="C28" t="s">
-        <v>562</v>
+        <v>441</v>
       </c>
       <c r="D28" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>602</v>
+        <v>512</v>
       </c>
       <c r="B29" t="s">
-        <v>441</v>
+        <v>377</v>
       </c>
       <c r="C29" t="s">
-        <v>550</v>
+        <v>456</v>
       </c>
       <c r="D29" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>603</v>
+        <v>513</v>
       </c>
       <c r="B30" t="s">
-        <v>384</v>
+        <v>403</v>
       </c>
       <c r="C30" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="D30" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>604</v>
+        <v>514</v>
       </c>
       <c r="B31" t="s">
-        <v>395</v>
+        <v>332</v>
       </c>
       <c r="C31" t="s">
-        <v>504</v>
+        <v>411</v>
       </c>
       <c r="D31" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>605</v>
+        <v>515</v>
       </c>
       <c r="B32" t="s">
-        <v>431</v>
+        <v>390</v>
       </c>
       <c r="C32" t="s">
-        <v>540</v>
+        <v>469</v>
       </c>
       <c r="D32" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>516</v>
+      </c>
+      <c r="B33" t="s">
+        <v>341</v>
+      </c>
+      <c r="C33" t="s">
+        <v>420</v>
+      </c>
+      <c r="D33" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>517</v>
+      </c>
+      <c r="B34" t="s">
+        <v>371</v>
+      </c>
+      <c r="C34" t="s">
+        <v>450</v>
+      </c>
+      <c r="D34" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>518</v>
+      </c>
+      <c r="B35" t="s">
+        <v>384</v>
+      </c>
+      <c r="C35" t="s">
+        <v>463</v>
+      </c>
+      <c r="D35" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>519</v>
+      </c>
+      <c r="B36" t="s">
+        <v>402</v>
+      </c>
+      <c r="C36" t="s">
+        <v>481</v>
+      </c>
+      <c r="D36" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>606</v>
-      </c>
-      <c r="B33" t="s">
-        <v>462</v>
-      </c>
-      <c r="C33" t="s">
-        <v>571</v>
-      </c>
-      <c r="D33" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>520</v>
+      </c>
+      <c r="B37" t="s">
+        <v>356</v>
+      </c>
+      <c r="C37" t="s">
+        <v>435</v>
+      </c>
+      <c r="D37" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>521</v>
+      </c>
+      <c r="B38" t="s">
+        <v>363</v>
+      </c>
+      <c r="C38" t="s">
+        <v>442</v>
+      </c>
+      <c r="D38" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>522</v>
+      </c>
+      <c r="B39" t="s">
+        <v>350</v>
+      </c>
+      <c r="C39" t="s">
+        <v>429</v>
+      </c>
+      <c r="D39" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>607</v>
-      </c>
-      <c r="B34" t="s">
-        <v>392</v>
-      </c>
-      <c r="C34" t="s">
-        <v>501</v>
-      </c>
-      <c r="D34" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>523</v>
+      </c>
+      <c r="B40" t="s">
+        <v>361</v>
+      </c>
+      <c r="C40" t="s">
+        <v>440</v>
+      </c>
+      <c r="D40" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>524</v>
+      </c>
+      <c r="B41" t="s">
+        <v>340</v>
+      </c>
+      <c r="C41" t="s">
+        <v>419</v>
+      </c>
+      <c r="D41" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>608</v>
-      </c>
-      <c r="B35" t="s">
-        <v>385</v>
-      </c>
-      <c r="C35" t="s">
-        <v>494</v>
-      </c>
-      <c r="D35" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>609</v>
-      </c>
-      <c r="B36" t="s">
-        <v>389</v>
-      </c>
-      <c r="C36" t="s">
-        <v>498</v>
-      </c>
-      <c r="D36" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>610</v>
-      </c>
-      <c r="B37" t="s">
-        <v>430</v>
-      </c>
-      <c r="C37" t="s">
-        <v>539</v>
-      </c>
-      <c r="D37" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>611</v>
-      </c>
-      <c r="B38" t="s">
-        <v>360</v>
-      </c>
-      <c r="C38" t="s">
-        <v>469</v>
-      </c>
-      <c r="D38" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>612</v>
-      </c>
-      <c r="B39" t="s">
-        <v>382</v>
-      </c>
-      <c r="C39" t="s">
-        <v>491</v>
-      </c>
-      <c r="D39" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>613</v>
-      </c>
-      <c r="B40" t="s">
-        <v>428</v>
-      </c>
-      <c r="C40" t="s">
-        <v>537</v>
-      </c>
-      <c r="D40" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>614</v>
-      </c>
-      <c r="B41" t="s">
-        <v>445</v>
-      </c>
-      <c r="C41" t="s">
-        <v>554</v>
-      </c>
-      <c r="D41" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>615</v>
+        <v>525</v>
       </c>
       <c r="B42" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C42" t="s">
-        <v>485</v>
+        <v>452</v>
       </c>
       <c r="D42" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>616</v>
+        <v>526</v>
       </c>
       <c r="B43" t="s">
-        <v>410</v>
+        <v>333</v>
       </c>
       <c r="C43" t="s">
-        <v>519</v>
+        <v>412</v>
       </c>
       <c r="D43" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>617</v>
+        <v>527</v>
       </c>
       <c r="B44" t="s">
-        <v>433</v>
+        <v>380</v>
       </c>
       <c r="C44" t="s">
-        <v>542</v>
+        <v>459</v>
       </c>
       <c r="D44" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>618</v>
+        <v>528</v>
       </c>
       <c r="B45" t="s">
-        <v>447</v>
+        <v>395</v>
       </c>
       <c r="C45" t="s">
-        <v>556</v>
+        <v>474</v>
       </c>
       <c r="D45" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>619</v>
+        <v>529</v>
       </c>
       <c r="B46" t="s">
-        <v>459</v>
+        <v>392</v>
       </c>
       <c r="C46" t="s">
-        <v>568</v>
+        <v>471</v>
       </c>
       <c r="D46" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>530</v>
+      </c>
+      <c r="B47" t="s">
+        <v>397</v>
+      </c>
+      <c r="C47" t="s">
+        <v>476</v>
+      </c>
+      <c r="D47" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>531</v>
+      </c>
+      <c r="B48" t="s">
+        <v>335</v>
+      </c>
+      <c r="C48" t="s">
+        <v>414</v>
+      </c>
+      <c r="D48" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>532</v>
+      </c>
+      <c r="B49" t="s">
+        <v>357</v>
+      </c>
+      <c r="C49" t="s">
+        <v>436</v>
+      </c>
+      <c r="D49" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>533</v>
+      </c>
+      <c r="B50" t="s">
+        <v>364</v>
+      </c>
+      <c r="C50" t="s">
+        <v>443</v>
+      </c>
+      <c r="D50" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>534</v>
+      </c>
+      <c r="B51" t="s">
+        <v>330</v>
+      </c>
+      <c r="C51" t="s">
+        <v>409</v>
+      </c>
+      <c r="D51" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>620</v>
-      </c>
-      <c r="B47" t="s">
-        <v>373</v>
-      </c>
-      <c r="C47" t="s">
-        <v>482</v>
-      </c>
-      <c r="D47" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>621</v>
-      </c>
-      <c r="B48" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>535</v>
+      </c>
+      <c r="B52" t="s">
+        <v>368</v>
+      </c>
+      <c r="C52" t="s">
+        <v>447</v>
+      </c>
+      <c r="D52" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>536</v>
+      </c>
+      <c r="B53" t="s">
+        <v>393</v>
+      </c>
+      <c r="C53" t="s">
+        <v>472</v>
+      </c>
+      <c r="D53" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>537</v>
+      </c>
+      <c r="B54" t="s">
+        <v>372</v>
+      </c>
+      <c r="C54" t="s">
+        <v>451</v>
+      </c>
+      <c r="D54" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>538</v>
+      </c>
+      <c r="B55" t="s">
+        <v>394</v>
+      </c>
+      <c r="C55" t="s">
+        <v>473</v>
+      </c>
+      <c r="D55" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>539</v>
+      </c>
+      <c r="B56" t="s">
         <v>404</v>
       </c>
-      <c r="C48" t="s">
-        <v>513</v>
-      </c>
-      <c r="D48" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>622</v>
-      </c>
-      <c r="B49" t="s">
-        <v>390</v>
-      </c>
-      <c r="C49" t="s">
-        <v>499</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="C56" t="s">
+        <v>483</v>
+      </c>
+      <c r="D56" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>540</v>
+      </c>
+      <c r="B57" t="s">
+        <v>388</v>
+      </c>
+      <c r="C57" t="s">
+        <v>467</v>
+      </c>
+      <c r="D57" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>623</v>
-      </c>
-      <c r="B50" t="s">
-        <v>361</v>
-      </c>
-      <c r="C50" t="s">
-        <v>470</v>
-      </c>
-      <c r="D50" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>541</v>
+      </c>
+      <c r="B58" t="s">
+        <v>381</v>
+      </c>
+      <c r="C58" t="s">
+        <v>460</v>
+      </c>
+      <c r="D58" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>542</v>
+      </c>
+      <c r="B59" t="s">
+        <v>398</v>
+      </c>
+      <c r="C59" t="s">
+        <v>477</v>
+      </c>
+      <c r="D59" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>624</v>
-      </c>
-      <c r="B51" t="s">
-        <v>425</v>
-      </c>
-      <c r="C51" t="s">
-        <v>534</v>
-      </c>
-      <c r="D51" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>625</v>
-      </c>
-      <c r="B52" t="s">
-        <v>463</v>
-      </c>
-      <c r="C52" t="s">
-        <v>572</v>
-      </c>
-      <c r="D52" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>626</v>
-      </c>
-      <c r="B53" t="s">
-        <v>440</v>
-      </c>
-      <c r="C53" t="s">
-        <v>549</v>
-      </c>
-      <c r="D53" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>627</v>
-      </c>
-      <c r="B54" t="s">
-        <v>364</v>
-      </c>
-      <c r="C54" t="s">
-        <v>473</v>
-      </c>
-      <c r="D54" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>628</v>
-      </c>
-      <c r="B55" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>543</v>
+      </c>
+      <c r="B60" t="s">
+        <v>367</v>
+      </c>
+      <c r="C60" t="s">
         <v>446</v>
-      </c>
-      <c r="C55" t="s">
-        <v>555</v>
-      </c>
-      <c r="D55" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>629</v>
-      </c>
-      <c r="B56" t="s">
-        <v>408</v>
-      </c>
-      <c r="C56" t="s">
-        <v>517</v>
-      </c>
-      <c r="D56" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>630</v>
-      </c>
-      <c r="B57" t="s">
-        <v>378</v>
-      </c>
-      <c r="C57" t="s">
-        <v>487</v>
-      </c>
-      <c r="D57" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>631</v>
-      </c>
-      <c r="B58" t="s">
-        <v>416</v>
-      </c>
-      <c r="C58" t="s">
-        <v>525</v>
-      </c>
-      <c r="D58" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>632</v>
-      </c>
-      <c r="B59" t="s">
-        <v>437</v>
-      </c>
-      <c r="C59" t="s">
-        <v>546</v>
-      </c>
-      <c r="D59" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>633</v>
-      </c>
-      <c r="B60" t="s">
-        <v>426</v>
-      </c>
-      <c r="C60" t="s">
-        <v>535</v>
       </c>
       <c r="D60" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>634</v>
+        <v>544</v>
       </c>
       <c r="B61" t="s">
-        <v>448</v>
+        <v>379</v>
       </c>
       <c r="C61" t="s">
-        <v>557</v>
+        <v>458</v>
       </c>
       <c r="D61" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>635</v>
+        <v>545</v>
       </c>
       <c r="B62" t="s">
-        <v>442</v>
+        <v>331</v>
       </c>
       <c r="C62" t="s">
-        <v>551</v>
+        <v>410</v>
       </c>
       <c r="D62" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>636</v>
+        <v>546</v>
       </c>
       <c r="B63" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C63" t="s">
-        <v>495</v>
+        <v>464</v>
       </c>
       <c r="D63" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>637</v>
+        <v>547</v>
       </c>
       <c r="B64" t="s">
-        <v>397</v>
+        <v>343</v>
       </c>
       <c r="C64" t="s">
-        <v>506</v>
+        <v>422</v>
       </c>
       <c r="D64" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>638</v>
+        <v>548</v>
       </c>
       <c r="B65" t="s">
-        <v>461</v>
+        <v>400</v>
       </c>
       <c r="C65" t="s">
-        <v>570</v>
+        <v>479</v>
       </c>
       <c r="D65" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>639</v>
-      </c>
-      <c r="B66" t="s">
-        <v>414</v>
-      </c>
-      <c r="C66" t="s">
-        <v>523</v>
-      </c>
-      <c r="D66" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>640</v>
-      </c>
-      <c r="B67" t="s">
-        <v>398</v>
-      </c>
-      <c r="C67" t="s">
-        <v>507</v>
-      </c>
-      <c r="D67" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>641</v>
-      </c>
-      <c r="B68" t="s">
-        <v>405</v>
-      </c>
-      <c r="C68" t="s">
-        <v>514</v>
-      </c>
-      <c r="D68" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>642</v>
-      </c>
-      <c r="B69" t="s">
-        <v>391</v>
-      </c>
-      <c r="C69" t="s">
-        <v>500</v>
-      </c>
-      <c r="D69" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>643</v>
-      </c>
-      <c r="B70" t="s">
-        <v>403</v>
-      </c>
-      <c r="C70" t="s">
-        <v>512</v>
-      </c>
-      <c r="D70" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>644</v>
-      </c>
-      <c r="B71" t="s">
-        <v>377</v>
-      </c>
-      <c r="C71" t="s">
-        <v>486</v>
-      </c>
-      <c r="D71" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>645</v>
-      </c>
-      <c r="B72" t="s">
-        <v>420</v>
-      </c>
-      <c r="C72" t="s">
-        <v>529</v>
-      </c>
-      <c r="D72" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>646</v>
-      </c>
-      <c r="B73" t="s">
-        <v>365</v>
-      </c>
-      <c r="C73" t="s">
-        <v>474</v>
-      </c>
-      <c r="D73" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>647</v>
-      </c>
-      <c r="B74" t="s">
-        <v>432</v>
-      </c>
-      <c r="C74" t="s">
-        <v>541</v>
-      </c>
-      <c r="D74" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>648</v>
-      </c>
-      <c r="B75" t="s">
-        <v>452</v>
-      </c>
-      <c r="C75" t="s">
-        <v>561</v>
-      </c>
-      <c r="D75" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>649</v>
-      </c>
-      <c r="B76" t="s">
-        <v>449</v>
-      </c>
-      <c r="C76" t="s">
-        <v>558</v>
-      </c>
-      <c r="D76" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>650</v>
-      </c>
-      <c r="B77" t="s">
-        <v>454</v>
-      </c>
-      <c r="C77" t="s">
-        <v>563</v>
-      </c>
-      <c r="D77" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>651</v>
-      </c>
-      <c r="B78" t="s">
-        <v>367</v>
-      </c>
-      <c r="C78" t="s">
-        <v>476</v>
-      </c>
-      <c r="D78" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>652</v>
-      </c>
-      <c r="B79" t="s">
-        <v>399</v>
-      </c>
-      <c r="C79" t="s">
-        <v>508</v>
-      </c>
-      <c r="D79" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>653</v>
-      </c>
-      <c r="B80" t="s">
-        <v>406</v>
-      </c>
-      <c r="C80" t="s">
-        <v>515</v>
-      </c>
-      <c r="D80" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>654</v>
-      </c>
-      <c r="B81" t="s">
-        <v>362</v>
-      </c>
-      <c r="C81" t="s">
-        <v>471</v>
-      </c>
-      <c r="D81" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>655</v>
-      </c>
-      <c r="B82" t="s">
-        <v>412</v>
-      </c>
-      <c r="C82" t="s">
-        <v>521</v>
-      </c>
-      <c r="D82" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>656</v>
-      </c>
-      <c r="B83" t="s">
-        <v>450</v>
-      </c>
-      <c r="C83" t="s">
-        <v>559</v>
-      </c>
-      <c r="D83" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>657</v>
-      </c>
-      <c r="B84" t="s">
-        <v>417</v>
-      </c>
-      <c r="C84" t="s">
-        <v>526</v>
-      </c>
-      <c r="D84" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>658</v>
-      </c>
-      <c r="B85" t="s">
-        <v>451</v>
-      </c>
-      <c r="C85" t="s">
-        <v>560</v>
-      </c>
-      <c r="D85" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>659</v>
-      </c>
-      <c r="B86" t="s">
-        <v>464</v>
-      </c>
-      <c r="C86" t="s">
-        <v>573</v>
-      </c>
-      <c r="D86" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>660</v>
-      </c>
-      <c r="B87" t="s">
-        <v>444</v>
-      </c>
-      <c r="C87" t="s">
-        <v>553</v>
-      </c>
-      <c r="D87" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>661</v>
-      </c>
-      <c r="B88" t="s">
-        <v>434</v>
-      </c>
-      <c r="C88" t="s">
-        <v>543</v>
-      </c>
-      <c r="D88" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>662</v>
-      </c>
-      <c r="B89" t="s">
-        <v>455</v>
-      </c>
-      <c r="C89" t="s">
-        <v>564</v>
-      </c>
-      <c r="D89" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>663</v>
-      </c>
-      <c r="B90" t="s">
-        <v>411</v>
-      </c>
-      <c r="C90" t="s">
-        <v>520</v>
-      </c>
-      <c r="D90" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>664</v>
-      </c>
-      <c r="B91" t="s">
-        <v>429</v>
-      </c>
-      <c r="C91" t="s">
-        <v>538</v>
-      </c>
-      <c r="D91" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>665</v>
-      </c>
-      <c r="B92" t="s">
-        <v>363</v>
-      </c>
-      <c r="C92" t="s">
-        <v>472</v>
-      </c>
-      <c r="D92" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>666</v>
-      </c>
-      <c r="B93" t="s">
-        <v>438</v>
-      </c>
-      <c r="C93" t="s">
-        <v>547</v>
-      </c>
-      <c r="D93" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>667</v>
-      </c>
-      <c r="B94" t="s">
-        <v>381</v>
-      </c>
-      <c r="C94" t="s">
-        <v>490</v>
-      </c>
-      <c r="D94" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>668</v>
-      </c>
-      <c r="B95" t="s">
-        <v>458</v>
-      </c>
-      <c r="C95" t="s">
-        <v>567</v>
-      </c>
-      <c r="D95" t="s">
         <v>242</v>
       </c>
     </row>
@@ -8440,27 +7190,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="41.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -8477,12 +7216,12 @@
         <v>245</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>669</v>
+        <v>549</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>137</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -8500,28 +7239,28 @@
       <c r="M1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>670</v>
+        <v>550</v>
       </c>
       <c r="B2" t="s">
         <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>424</v>
+        <v>376</v>
       </c>
       <c r="D2" t="s">
         <v>117</v>
       </c>
       <c r="E2" t="s">
-        <v>533</v>
+        <v>455</v>
       </c>
       <c r="F2" t="s">
         <v>242</v>
@@ -8554,21 +7293,21 @@
         <v>607</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>671</v>
+        <v>551</v>
       </c>
       <c r="B3" t="s">
         <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>443</v>
+        <v>387</v>
       </c>
       <c r="D3" t="s">
         <v>103</v>
       </c>
       <c r="E3" t="s">
-        <v>552</v>
+        <v>466</v>
       </c>
       <c r="F3" t="s">
         <v>242</v>
@@ -8601,21 +7340,21 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>672</v>
+        <v>552</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>413</v>
+        <v>369</v>
       </c>
       <c r="D4" t="s">
         <v>111</v>
       </c>
       <c r="E4" t="s">
-        <v>522</v>
+        <v>448</v>
       </c>
       <c r="F4" t="s">
         <v>242</v>
@@ -8648,21 +7387,21 @@
         <v>583</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>673</v>
+        <v>553</v>
       </c>
       <c r="B5" t="s">
-        <v>710</v>
+        <v>590</v>
       </c>
       <c r="C5" t="s">
-        <v>393</v>
+        <v>352</v>
       </c>
       <c r="D5" t="s">
-        <v>747</v>
+        <v>627</v>
       </c>
       <c r="E5" t="s">
-        <v>502</v>
+        <v>431</v>
       </c>
       <c r="F5" t="s">
         <v>242</v>
@@ -8695,21 +7434,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>674</v>
+        <v>554</v>
       </c>
       <c r="B6" t="s">
-        <v>711</v>
+        <v>591</v>
       </c>
       <c r="C6" t="s">
-        <v>392</v>
+        <v>351</v>
       </c>
       <c r="D6" t="s">
-        <v>748</v>
+        <v>628</v>
       </c>
       <c r="E6" t="s">
-        <v>501</v>
+        <v>430</v>
       </c>
       <c r="F6" t="s">
         <v>243</v>
@@ -8742,21 +7481,21 @@
         <v>457</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>675</v>
+        <v>555</v>
       </c>
       <c r="B7" t="s">
-        <v>712</v>
+        <v>592</v>
       </c>
       <c r="C7" t="s">
-        <v>407</v>
+        <v>353</v>
       </c>
       <c r="D7" t="s">
-        <v>749</v>
+        <v>592</v>
       </c>
       <c r="E7" t="s">
-        <v>516</v>
+        <v>432</v>
       </c>
       <c r="F7" t="s">
         <v>242</v>
@@ -8765,7 +7504,7 @@
         <v>243</v>
       </c>
       <c r="H7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -8783,36 +7522,36 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>676</v>
+        <v>556</v>
       </c>
       <c r="B8" t="s">
-        <v>713</v>
+        <v>593</v>
       </c>
       <c r="C8" t="s">
-        <v>442</v>
+        <v>331</v>
       </c>
       <c r="D8" t="s">
-        <v>713</v>
+        <v>629</v>
       </c>
       <c r="E8" t="s">
-        <v>551</v>
+        <v>410</v>
       </c>
       <c r="F8" t="s">
         <v>242</v>
       </c>
       <c r="G8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -8821,7 +7560,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -8830,27 +7569,27 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>677</v>
+        <v>557</v>
       </c>
       <c r="B9" t="s">
-        <v>714</v>
+        <v>594</v>
       </c>
       <c r="C9" t="s">
-        <v>455</v>
+        <v>385</v>
       </c>
       <c r="D9" t="s">
-        <v>750</v>
+        <v>594</v>
       </c>
       <c r="E9" t="s">
-        <v>564</v>
+        <v>464</v>
       </c>
       <c r="F9" t="s">
         <v>243</v>
@@ -8877,36 +7616,36 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="O9">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>678</v>
+        <v>558</v>
       </c>
       <c r="B10" t="s">
-        <v>715</v>
+        <v>595</v>
       </c>
       <c r="C10" t="s">
-        <v>438</v>
+        <v>371</v>
       </c>
       <c r="D10" t="s">
-        <v>715</v>
+        <v>630</v>
       </c>
       <c r="E10" t="s">
-        <v>547</v>
+        <v>450</v>
       </c>
       <c r="F10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -8915,7 +7654,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -8924,27 +7663,27 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>679</v>
+        <v>559</v>
       </c>
       <c r="B11" t="s">
-        <v>716</v>
+        <v>596</v>
       </c>
       <c r="C11" t="s">
-        <v>430</v>
+        <v>365</v>
       </c>
       <c r="D11" t="s">
-        <v>751</v>
+        <v>631</v>
       </c>
       <c r="E11" t="s">
-        <v>539</v>
+        <v>444</v>
       </c>
       <c r="F11" t="s">
         <v>242</v>
@@ -8977,39 +7716,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>680</v>
+        <v>560</v>
       </c>
       <c r="B12" t="s">
-        <v>717</v>
+        <v>597</v>
       </c>
       <c r="C12" t="s">
-        <v>363</v>
+        <v>335</v>
       </c>
       <c r="D12" t="s">
-        <v>752</v>
+        <v>632</v>
       </c>
       <c r="E12" t="s">
-        <v>472</v>
+        <v>414</v>
       </c>
       <c r="F12" t="s">
         <v>242</v>
       </c>
       <c r="G12" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H12" t="s">
         <v>242</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -9018,27 +7757,27 @@
         <v>0</v>
       </c>
       <c r="N12">
+        <v>26</v>
+      </c>
+      <c r="O12">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>561</v>
+      </c>
+      <c r="B13" t="s">
+        <v>598</v>
+      </c>
+      <c r="C13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D13" t="s">
+        <v>598</v>
+      </c>
+      <c r="E13" t="s">
         <v>476</v>
-      </c>
-      <c r="O12">
-        <v>3290</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>681</v>
-      </c>
-      <c r="B13" t="s">
-        <v>718</v>
-      </c>
-      <c r="C13" t="s">
-        <v>426</v>
-      </c>
-      <c r="D13" t="s">
-        <v>753</v>
-      </c>
-      <c r="E13" t="s">
-        <v>535</v>
       </c>
       <c r="F13" t="s">
         <v>242</v>
@@ -9047,7 +7786,7 @@
         <v>243</v>
       </c>
       <c r="H13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -9065,27 +7804,27 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>682</v>
+        <v>562</v>
       </c>
       <c r="B14" t="s">
-        <v>719</v>
+        <v>599</v>
       </c>
       <c r="C14" t="s">
-        <v>439</v>
+        <v>368</v>
       </c>
       <c r="D14" t="s">
-        <v>719</v>
+        <v>599</v>
       </c>
       <c r="E14" t="s">
-        <v>548</v>
+        <v>447</v>
       </c>
       <c r="F14" t="s">
         <v>242</v>
@@ -9094,7 +7833,7 @@
         <v>243</v>
       </c>
       <c r="H14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -9112,27 +7851,27 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>683</v>
+        <v>563</v>
       </c>
       <c r="B15" t="s">
-        <v>720</v>
+        <v>600</v>
       </c>
       <c r="C15" t="s">
-        <v>395</v>
+        <v>367</v>
       </c>
       <c r="D15" t="s">
-        <v>754</v>
+        <v>633</v>
       </c>
       <c r="E15" t="s">
-        <v>504</v>
+        <v>446</v>
       </c>
       <c r="F15" t="s">
         <v>243</v>
@@ -9159,45 +7898,45 @@
         <v>0</v>
       </c>
       <c r="N15">
+        <v>43</v>
+      </c>
+      <c r="O15">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>564</v>
+      </c>
+      <c r="B16" t="s">
+        <v>601</v>
+      </c>
+      <c r="C16" t="s">
+        <v>362</v>
+      </c>
+      <c r="D16" t="s">
+        <v>634</v>
+      </c>
+      <c r="E16" t="s">
+        <v>441</v>
+      </c>
+      <c r="F16" t="s">
+        <v>242</v>
+      </c>
+      <c r="G16" t="s">
+        <v>242</v>
+      </c>
+      <c r="H16" t="s">
+        <v>242</v>
+      </c>
+      <c r="I16">
         <v>1</v>
       </c>
-      <c r="O15">
+      <c r="J16">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>684</v>
-      </c>
-      <c r="B16" t="s">
-        <v>721</v>
-      </c>
-      <c r="C16" t="s">
-        <v>370</v>
-      </c>
-      <c r="D16" t="s">
-        <v>721</v>
-      </c>
-      <c r="E16" t="s">
-        <v>479</v>
-      </c>
-      <c r="F16" t="s">
-        <v>243</v>
-      </c>
-      <c r="G16" t="s">
-        <v>243</v>
-      </c>
-      <c r="H16" t="s">
-        <v>242</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
       <c r="K16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -9206,30 +7945,30 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O16">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>685</v>
+        <v>565</v>
       </c>
       <c r="B17" t="s">
-        <v>722</v>
+        <v>602</v>
       </c>
       <c r="C17" t="s">
-        <v>416</v>
+        <v>344</v>
       </c>
       <c r="D17" t="s">
-        <v>722</v>
+        <v>602</v>
       </c>
       <c r="E17" t="s">
-        <v>525</v>
+        <v>423</v>
       </c>
       <c r="F17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G17" t="s">
         <v>243</v>
@@ -9253,27 +7992,27 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="O17">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>686</v>
+        <v>566</v>
       </c>
       <c r="B18" t="s">
-        <v>723</v>
+        <v>603</v>
       </c>
       <c r="C18" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="D18" t="s">
-        <v>755</v>
+        <v>603</v>
       </c>
       <c r="E18" t="s">
-        <v>513</v>
+        <v>468</v>
       </c>
       <c r="F18" t="s">
         <v>242</v>
@@ -9300,45 +8039,45 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="O18">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>687</v>
+        <v>567</v>
       </c>
       <c r="B19" t="s">
-        <v>724</v>
+        <v>604</v>
       </c>
       <c r="C19" t="s">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="D19" t="s">
-        <v>756</v>
+        <v>635</v>
       </c>
       <c r="E19" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
       <c r="F19" t="s">
         <v>242</v>
       </c>
       <c r="G19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -9347,36 +8086,36 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>688</v>
+        <v>568</v>
       </c>
       <c r="B20" t="s">
-        <v>725</v>
+        <v>605</v>
       </c>
       <c r="C20" t="s">
-        <v>386</v>
+        <v>332</v>
       </c>
       <c r="D20" t="s">
-        <v>757</v>
+        <v>636</v>
       </c>
       <c r="E20" t="s">
-        <v>495</v>
+        <v>411</v>
       </c>
       <c r="F20" t="s">
         <v>242</v>
       </c>
       <c r="G20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -9385,7 +8124,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -9394,33 +8133,33 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>689</v>
+        <v>569</v>
       </c>
       <c r="B21" t="s">
-        <v>726</v>
+        <v>606</v>
       </c>
       <c r="C21" t="s">
-        <v>398</v>
+        <v>327</v>
       </c>
       <c r="D21" t="s">
-        <v>726</v>
+        <v>637</v>
       </c>
       <c r="E21" t="s">
-        <v>507</v>
+        <v>406</v>
       </c>
       <c r="F21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H21" t="s">
         <v>242</v>
@@ -9432,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -9441,27 +8180,27 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="O21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>690</v>
+        <v>570</v>
       </c>
       <c r="B22" t="s">
-        <v>727</v>
+        <v>607</v>
       </c>
       <c r="C22" t="s">
-        <v>421</v>
+        <v>373</v>
       </c>
       <c r="D22" t="s">
-        <v>758</v>
+        <v>638</v>
       </c>
       <c r="E22" t="s">
-        <v>530</v>
+        <v>452</v>
       </c>
       <c r="F22" t="s">
         <v>242</v>
@@ -9494,21 +8233,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>691</v>
+        <v>571</v>
       </c>
       <c r="B23" t="s">
-        <v>728</v>
+        <v>608</v>
       </c>
       <c r="C23" t="s">
-        <v>421</v>
+        <v>381</v>
       </c>
       <c r="D23" t="s">
-        <v>728</v>
+        <v>608</v>
       </c>
       <c r="E23" t="s">
-        <v>530</v>
+        <v>460</v>
       </c>
       <c r="F23" t="s">
         <v>242</v>
@@ -9541,21 +8280,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>692</v>
+        <v>572</v>
       </c>
       <c r="B24" t="s">
-        <v>729</v>
+        <v>609</v>
       </c>
       <c r="C24" t="s">
-        <v>421</v>
+        <v>387</v>
       </c>
       <c r="D24" t="s">
-        <v>759</v>
+        <v>609</v>
       </c>
       <c r="E24" t="s">
-        <v>530</v>
+        <v>466</v>
       </c>
       <c r="F24" t="s">
         <v>242</v>
@@ -9588,24 +8327,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>693</v>
+        <v>573</v>
       </c>
       <c r="B25" t="s">
-        <v>730</v>
+        <v>610</v>
       </c>
       <c r="C25" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="D25" t="s">
-        <v>730</v>
+        <v>610</v>
       </c>
       <c r="E25" t="s">
-        <v>512</v>
+        <v>469</v>
       </c>
       <c r="F25" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G25" t="s">
         <v>243</v>
@@ -9635,30 +8374,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>694</v>
+        <v>574</v>
       </c>
       <c r="B26" t="s">
-        <v>731</v>
+        <v>611</v>
       </c>
       <c r="C26" t="s">
-        <v>463</v>
+        <v>390</v>
       </c>
       <c r="D26" t="s">
-        <v>760</v>
+        <v>611</v>
       </c>
       <c r="E26" t="s">
-        <v>572</v>
+        <v>469</v>
       </c>
       <c r="F26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G26" t="s">
         <v>243</v>
       </c>
       <c r="H26" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -9676,36 +8415,36 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="O26">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>695</v>
+        <v>575</v>
       </c>
       <c r="B27" t="s">
-        <v>732</v>
+        <v>612</v>
       </c>
       <c r="C27" t="s">
-        <v>393</v>
+        <v>332</v>
       </c>
       <c r="D27" t="s">
-        <v>761</v>
+        <v>612</v>
       </c>
       <c r="E27" t="s">
-        <v>502</v>
+        <v>411</v>
       </c>
       <c r="F27" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G27" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -9714,7 +8453,7 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -9723,27 +8462,27 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>696</v>
+        <v>576</v>
       </c>
       <c r="B28" t="s">
-        <v>733</v>
+        <v>613</v>
       </c>
       <c r="C28" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="D28" t="s">
-        <v>733</v>
+        <v>639</v>
       </c>
       <c r="E28" t="s">
-        <v>484</v>
+        <v>463</v>
       </c>
       <c r="F28" t="s">
         <v>242</v>
@@ -9776,21 +8515,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>697</v>
+        <v>577</v>
       </c>
       <c r="B29" t="s">
-        <v>734</v>
+        <v>614</v>
       </c>
       <c r="C29" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="D29" t="s">
-        <v>734</v>
+        <v>640</v>
       </c>
       <c r="E29" t="s">
-        <v>498</v>
+        <v>443</v>
       </c>
       <c r="F29" t="s">
         <v>242</v>
@@ -9799,7 +8538,7 @@
         <v>243</v>
       </c>
       <c r="H29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -9817,27 +8556,27 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="O29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>698</v>
+        <v>578</v>
       </c>
       <c r="B30" t="s">
-        <v>735</v>
+        <v>615</v>
       </c>
       <c r="C30" t="s">
-        <v>426</v>
+        <v>346</v>
       </c>
       <c r="D30" t="s">
-        <v>762</v>
+        <v>615</v>
       </c>
       <c r="E30" t="s">
-        <v>535</v>
+        <v>425</v>
       </c>
       <c r="F30" t="s">
         <v>242</v>
@@ -9846,7 +8585,7 @@
         <v>243</v>
       </c>
       <c r="H30" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -9864,27 +8603,27 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>699</v>
+        <v>579</v>
       </c>
       <c r="B31" t="s">
-        <v>736</v>
+        <v>616</v>
       </c>
       <c r="C31" t="s">
-        <v>390</v>
+        <v>339</v>
       </c>
       <c r="D31" t="s">
-        <v>763</v>
+        <v>641</v>
       </c>
       <c r="E31" t="s">
-        <v>499</v>
+        <v>418</v>
       </c>
       <c r="F31" t="s">
         <v>242</v>
@@ -9893,7 +8632,7 @@
         <v>243</v>
       </c>
       <c r="H31" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -9911,27 +8650,27 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="O31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>700</v>
+        <v>580</v>
       </c>
       <c r="B32" t="s">
-        <v>737</v>
+        <v>617</v>
       </c>
       <c r="C32" t="s">
-        <v>362</v>
+        <v>385</v>
       </c>
       <c r="D32" t="s">
-        <v>737</v>
+        <v>617</v>
       </c>
       <c r="E32" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F32" t="s">
         <v>243</v>
@@ -9958,27 +8697,27 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>701</v>
+        <v>581</v>
       </c>
       <c r="B33" t="s">
-        <v>738</v>
+        <v>618</v>
       </c>
       <c r="C33" t="s">
-        <v>424</v>
+        <v>373</v>
       </c>
       <c r="D33" t="s">
-        <v>764</v>
+        <v>642</v>
       </c>
       <c r="E33" t="s">
-        <v>533</v>
+        <v>452</v>
       </c>
       <c r="F33" t="s">
         <v>242</v>
@@ -9990,13 +8729,13 @@
         <v>242</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K33">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -10005,27 +8744,27 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="O33">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>702</v>
+        <v>582</v>
       </c>
       <c r="B34" t="s">
-        <v>739</v>
+        <v>619</v>
       </c>
       <c r="C34" t="s">
-        <v>368</v>
+        <v>327</v>
       </c>
       <c r="D34" t="s">
-        <v>765</v>
+        <v>643</v>
       </c>
       <c r="E34" t="s">
-        <v>477</v>
+        <v>406</v>
       </c>
       <c r="F34" t="s">
         <v>242</v>
@@ -10058,21 +8797,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>703</v>
+        <v>583</v>
       </c>
       <c r="B35" t="s">
-        <v>740</v>
+        <v>620</v>
       </c>
       <c r="C35" t="s">
-        <v>428</v>
+        <v>389</v>
       </c>
       <c r="D35" t="s">
-        <v>740</v>
+        <v>620</v>
       </c>
       <c r="E35" t="s">
-        <v>537</v>
+        <v>468</v>
       </c>
       <c r="F35" t="s">
         <v>242</v>
@@ -10105,21 +8844,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>704</v>
+        <v>584</v>
       </c>
       <c r="B36" t="s">
-        <v>741</v>
+        <v>621</v>
       </c>
       <c r="C36" t="s">
-        <v>429</v>
+        <v>397</v>
       </c>
       <c r="D36" t="s">
-        <v>766</v>
+        <v>644</v>
       </c>
       <c r="E36" t="s">
-        <v>538</v>
+        <v>476</v>
       </c>
       <c r="F36" t="s">
         <v>242</v>
@@ -10137,7 +8876,7 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -10146,124 +8885,124 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="O36">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>705</v>
+        <v>585</v>
       </c>
       <c r="B37" t="s">
-        <v>742</v>
+        <v>622</v>
       </c>
       <c r="C37" t="s">
-        <v>462</v>
+        <v>385</v>
       </c>
       <c r="D37" t="s">
-        <v>767</v>
+        <v>645</v>
       </c>
       <c r="E37" t="s">
-        <v>571</v>
+        <v>464</v>
       </c>
       <c r="F37" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G37" t="s">
         <v>243</v>
       </c>
       <c r="H37" t="s">
+        <v>242</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>7</v>
+      </c>
+      <c r="O37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>586</v>
+      </c>
+      <c r="B38" t="s">
+        <v>623</v>
+      </c>
+      <c r="C38" t="s">
+        <v>346</v>
+      </c>
+      <c r="D38" t="s">
+        <v>646</v>
+      </c>
+      <c r="E38" t="s">
+        <v>425</v>
+      </c>
+      <c r="F38" t="s">
+        <v>242</v>
+      </c>
+      <c r="G38" t="s">
+        <v>242</v>
+      </c>
+      <c r="H38" t="s">
+        <v>242</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>5</v>
+      </c>
+      <c r="K38">
+        <v>3</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>64</v>
+      </c>
+      <c r="O38">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>587</v>
+      </c>
+      <c r="B39" t="s">
+        <v>624</v>
+      </c>
+      <c r="C39" t="s">
+        <v>398</v>
+      </c>
+      <c r="D39" t="s">
+        <v>647</v>
+      </c>
+      <c r="E39" t="s">
+        <v>477</v>
+      </c>
+      <c r="F39" t="s">
         <v>243</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>706</v>
-      </c>
-      <c r="B38" t="s">
-        <v>743</v>
-      </c>
-      <c r="C38" t="s">
-        <v>363</v>
-      </c>
-      <c r="D38" t="s">
-        <v>743</v>
-      </c>
-      <c r="E38" t="s">
-        <v>472</v>
-      </c>
-      <c r="F38" t="s">
-        <v>242</v>
-      </c>
-      <c r="G38" t="s">
-        <v>243</v>
-      </c>
-      <c r="H38" t="s">
-        <v>243</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>707</v>
-      </c>
-      <c r="B39" t="s">
-        <v>744</v>
-      </c>
-      <c r="C39" t="s">
-        <v>407</v>
-      </c>
-      <c r="D39" t="s">
-        <v>768</v>
-      </c>
-      <c r="E39" t="s">
-        <v>516</v>
-      </c>
-      <c r="F39" t="s">
-        <v>242</v>
       </c>
       <c r="G39" t="s">
         <v>243</v>
@@ -10287,27 +9026,27 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="O39">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>708</v>
+        <v>588</v>
       </c>
       <c r="B40" t="s">
-        <v>745</v>
+        <v>625</v>
       </c>
       <c r="C40" t="s">
-        <v>461</v>
+        <v>363</v>
       </c>
       <c r="D40" t="s">
-        <v>769</v>
+        <v>625</v>
       </c>
       <c r="E40" t="s">
-        <v>570</v>
+        <v>442</v>
       </c>
       <c r="F40" t="s">
         <v>243</v>
@@ -10316,7 +9055,7 @@
         <v>243</v>
       </c>
       <c r="H40" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -10334,36 +9073,36 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>709</v>
+        <v>589</v>
       </c>
       <c r="B41" t="s">
-        <v>746</v>
+        <v>626</v>
       </c>
       <c r="C41" t="s">
-        <v>433</v>
+        <v>356</v>
       </c>
       <c r="D41" t="s">
-        <v>746</v>
+        <v>648</v>
       </c>
       <c r="E41" t="s">
-        <v>542</v>
+        <v>435</v>
       </c>
       <c r="F41" t="s">
         <v>242</v>
       </c>
       <c r="G41" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H41" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -10372,7 +9111,7 @@
         <v>0</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -10381,10 +9120,10 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -10396,603 +9135,596 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>770</v>
+        <v>649</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>771</v>
+        <v>650</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B2" t="s">
-        <v>774</v>
+        <v>653</v>
       </c>
       <c r="C2" t="s">
         <v>117</v>
       </c>
       <c r="D2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B3" t="s">
-        <v>774</v>
+        <v>653</v>
       </c>
       <c r="C3" t="s">
         <v>115</v>
       </c>
       <c r="D3">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B4" t="s">
-        <v>774</v>
+        <v>653</v>
       </c>
       <c r="C4" t="s">
         <v>119</v>
       </c>
       <c r="D4">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B5" t="s">
-        <v>774</v>
+        <v>653</v>
       </c>
       <c r="C5" t="s">
         <v>112</v>
       </c>
       <c r="D5">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B6" t="s">
-        <v>774</v>
+        <v>653</v>
       </c>
       <c r="C6" t="s">
         <v>103</v>
       </c>
       <c r="D6">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B7" t="s">
-        <v>774</v>
+        <v>653</v>
       </c>
       <c r="C7" t="s">
         <v>102</v>
       </c>
       <c r="D7">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B8" t="s">
-        <v>774</v>
+        <v>653</v>
       </c>
       <c r="C8" t="s">
         <v>106</v>
       </c>
       <c r="D8">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B9" t="s">
-        <v>774</v>
+        <v>653</v>
       </c>
       <c r="C9" t="s">
         <v>126</v>
       </c>
       <c r="D9">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B10" t="s">
-        <v>774</v>
+        <v>653</v>
       </c>
       <c r="C10" t="s">
         <v>120</v>
       </c>
       <c r="D10">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B11" t="s">
-        <v>774</v>
+        <v>653</v>
       </c>
       <c r="C11" t="s">
         <v>111</v>
       </c>
       <c r="D11">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B12" t="s">
-        <v>774</v>
+        <v>653</v>
       </c>
       <c r="C12" t="s">
         <v>231</v>
       </c>
       <c r="D12">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B13" t="s">
-        <v>774</v>
+        <v>653</v>
       </c>
       <c r="C13" t="s">
-        <v>775</v>
+        <v>654</v>
       </c>
       <c r="D13">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B14" t="s">
-        <v>774</v>
+        <v>653</v>
       </c>
       <c r="C14" t="s">
-        <v>776</v>
+        <v>655</v>
       </c>
       <c r="D14">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B15" t="s">
-        <v>774</v>
+        <v>653</v>
       </c>
       <c r="C15" t="s">
         <v>222</v>
       </c>
       <c r="D15">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B16" t="s">
-        <v>774</v>
+        <v>653</v>
       </c>
       <c r="C16" t="s">
         <v>218</v>
       </c>
       <c r="D16">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B17" t="s">
-        <v>774</v>
+        <v>653</v>
       </c>
       <c r="C17" t="s">
         <v>228</v>
       </c>
       <c r="D17">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B18" t="s">
-        <v>774</v>
+        <v>653</v>
       </c>
       <c r="C18" t="s">
-        <v>777</v>
+        <v>656</v>
       </c>
       <c r="D18">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B19" t="s">
-        <v>774</v>
+        <v>653</v>
       </c>
       <c r="C19" t="s">
         <v>224</v>
       </c>
       <c r="D19">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B20" t="s">
-        <v>774</v>
+        <v>653</v>
       </c>
       <c r="C20" t="s">
-        <v>778</v>
+        <v>657</v>
       </c>
       <c r="D20">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B21" t="s">
-        <v>774</v>
+        <v>653</v>
       </c>
       <c r="C21" t="s">
-        <v>779</v>
+        <v>658</v>
       </c>
       <c r="D21">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B22" t="s">
-        <v>774</v>
+        <v>653</v>
       </c>
       <c r="C22" t="s">
-        <v>780</v>
+        <v>659</v>
       </c>
       <c r="D22">
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B23" t="s">
-        <v>774</v>
+        <v>653</v>
       </c>
       <c r="C23" t="s">
-        <v>781</v>
+        <v>660</v>
       </c>
       <c r="D23">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B24" t="s">
-        <v>774</v>
+        <v>653</v>
       </c>
       <c r="C24" t="s">
         <v>227</v>
       </c>
       <c r="D24">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B25" t="s">
-        <v>774</v>
+        <v>653</v>
       </c>
       <c r="C25" t="s">
         <v>221</v>
       </c>
       <c r="D25">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B26" t="s">
-        <v>774</v>
+        <v>653</v>
       </c>
       <c r="C26" t="s">
         <v>223</v>
       </c>
       <c r="D26">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B27" t="s">
-        <v>774</v>
+        <v>653</v>
       </c>
       <c r="C27" t="s">
         <v>220</v>
       </c>
       <c r="D27">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B28" t="s">
-        <v>774</v>
+        <v>653</v>
       </c>
       <c r="C28" t="s">
-        <v>782</v>
+        <v>661</v>
       </c>
       <c r="D28">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B29" t="s">
-        <v>774</v>
+        <v>653</v>
       </c>
       <c r="C29" t="s">
-        <v>783</v>
+        <v>662</v>
       </c>
       <c r="D29">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B30" t="s">
-        <v>774</v>
+        <v>653</v>
       </c>
       <c r="C30" t="s">
-        <v>784</v>
+        <v>663</v>
       </c>
       <c r="D30">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B31" t="s">
-        <v>774</v>
+        <v>653</v>
       </c>
       <c r="C31" t="s">
-        <v>785</v>
+        <v>664</v>
       </c>
       <c r="D31">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B32" t="s">
-        <v>774</v>
+        <v>653</v>
       </c>
       <c r="C32" t="s">
-        <v>786</v>
+        <v>665</v>
       </c>
       <c r="D32">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B33" t="s">
-        <v>774</v>
+        <v>653</v>
       </c>
       <c r="C33" t="s">
-        <v>787</v>
+        <v>666</v>
       </c>
       <c r="D33">
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B34" t="s">
-        <v>774</v>
+        <v>653</v>
       </c>
       <c r="C34" t="s">
-        <v>788</v>
+        <v>667</v>
       </c>
       <c r="D34">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B35" t="s">
-        <v>774</v>
+        <v>653</v>
       </c>
       <c r="C35" t="s">
         <v>219</v>
       </c>
       <c r="D35">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B36" t="s">
-        <v>774</v>
+        <v>653</v>
       </c>
       <c r="C36" t="s">
-        <v>789</v>
+        <v>668</v>
       </c>
       <c r="D36">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B37" t="s">
-        <v>774</v>
+        <v>653</v>
       </c>
       <c r="C37" t="s">
         <v>225</v>
       </c>
       <c r="D37">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B38" t="s">
-        <v>774</v>
+        <v>653</v>
       </c>
       <c r="C38" t="s">
-        <v>790</v>
+        <v>669</v>
       </c>
       <c r="D38">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B39" t="s">
-        <v>774</v>
+        <v>653</v>
       </c>
       <c r="C39" t="s">
         <v>226</v>
       </c>
       <c r="D39">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B40" t="s">
-        <v>774</v>
+        <v>653</v>
       </c>
       <c r="C40" t="s">
-        <v>791</v>
+        <v>670</v>
       </c>
       <c r="D40">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B41" t="s">
-        <v>774</v>
+        <v>653</v>
       </c>
       <c r="C41" t="s">
-        <v>792</v>
+        <v>671</v>
       </c>
       <c r="D41">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B42" t="s">
-        <v>774</v>
+        <v>653</v>
       </c>
       <c r="C42" t="s">
-        <v>793</v>
+        <v>672</v>
       </c>
       <c r="D42">
-        <v>87</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -11002,569 +9734,513 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>770</v>
+        <v>649</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>771</v>
+        <v>650</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B2" t="s">
-        <v>794</v>
+        <v>673</v>
       </c>
       <c r="C2" t="s">
-        <v>524</v>
+        <v>416</v>
       </c>
       <c r="D2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B3" t="s">
-        <v>794</v>
+        <v>673</v>
       </c>
       <c r="C3" t="s">
-        <v>555</v>
+        <v>467</v>
       </c>
       <c r="D3">
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B4" t="s">
-        <v>794</v>
+        <v>673</v>
       </c>
       <c r="C4" t="s">
-        <v>467</v>
+        <v>406</v>
       </c>
       <c r="D4">
         <v>10000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B5" t="s">
-        <v>794</v>
+        <v>673</v>
       </c>
       <c r="C5" t="s">
-        <v>517</v>
+        <v>413</v>
       </c>
       <c r="D5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>652</v>
+      </c>
+      <c r="B6" t="s">
+        <v>673</v>
+      </c>
+      <c r="C6" t="s">
+        <v>440</v>
+      </c>
+      <c r="D6">
         <v>10000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>773</v>
-      </c>
-      <c r="B6" t="s">
-        <v>794</v>
-      </c>
-      <c r="C6" t="s">
-        <v>475</v>
-      </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B7" t="s">
-        <v>794</v>
+        <v>673</v>
       </c>
       <c r="C7" t="s">
-        <v>535</v>
+        <v>431</v>
       </c>
       <c r="D7">
         <v>10000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B8" t="s">
-        <v>794</v>
+        <v>673</v>
       </c>
       <c r="C8" t="s">
-        <v>551</v>
+        <v>466</v>
       </c>
       <c r="D8">
         <v>10000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B9" t="s">
-        <v>794</v>
+        <v>673</v>
       </c>
       <c r="C9" t="s">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="D9">
         <v>10000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B10" t="s">
-        <v>794</v>
+        <v>673</v>
       </c>
       <c r="C10" t="s">
-        <v>502</v>
+        <v>435</v>
       </c>
       <c r="D10">
         <v>10000</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B11" t="s">
-        <v>794</v>
+        <v>673</v>
       </c>
       <c r="C11" t="s">
-        <v>552</v>
+        <v>481</v>
       </c>
       <c r="D11">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B12" t="s">
-        <v>794</v>
+        <v>673</v>
       </c>
       <c r="C12" t="s">
-        <v>507</v>
+        <v>452</v>
       </c>
       <c r="D12">
         <v>10000</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B13" t="s">
-        <v>794</v>
+        <v>673</v>
       </c>
       <c r="C13" t="s">
-        <v>519</v>
+        <v>472</v>
       </c>
       <c r="D13">
         <v>10000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B14" t="s">
-        <v>794</v>
+        <v>673</v>
       </c>
       <c r="C14" t="s">
-        <v>528</v>
+        <v>464</v>
       </c>
       <c r="D14">
         <v>10000</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B15" t="s">
-        <v>794</v>
+        <v>673</v>
       </c>
       <c r="C15" t="s">
-        <v>482</v>
+        <v>418</v>
       </c>
       <c r="D15">
         <v>10000</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B16" t="s">
-        <v>794</v>
+        <v>673</v>
       </c>
       <c r="C16" t="s">
-        <v>527</v>
+        <v>423</v>
       </c>
       <c r="D16">
         <v>10000</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B17" t="s">
-        <v>794</v>
+        <v>673</v>
       </c>
       <c r="C17" t="s">
-        <v>491</v>
+        <v>468</v>
       </c>
       <c r="D17">
         <v>10000</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B18" t="s">
-        <v>794</v>
+        <v>673</v>
       </c>
       <c r="C18" t="s">
-        <v>554</v>
+        <v>447</v>
       </c>
       <c r="D18">
         <v>10000</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B19" t="s">
-        <v>794</v>
+        <v>673</v>
       </c>
       <c r="C19" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="D19">
         <v>10000</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B20" t="s">
-        <v>794</v>
+        <v>673</v>
       </c>
       <c r="C20" t="s">
-        <v>488</v>
+        <v>415</v>
       </c>
       <c r="D20">
         <v>10000</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B21" t="s">
-        <v>794</v>
+        <v>673</v>
       </c>
       <c r="C21" t="s">
-        <v>543</v>
+        <v>437</v>
       </c>
       <c r="D21">
         <v>10000</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B22" t="s">
-        <v>794</v>
+        <v>673</v>
       </c>
       <c r="C22" t="s">
-        <v>566</v>
+        <v>458</v>
       </c>
       <c r="D22">
         <v>10000</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B23" t="s">
-        <v>794</v>
+        <v>673</v>
       </c>
       <c r="C23" t="s">
-        <v>484</v>
+        <v>408</v>
       </c>
       <c r="D23">
         <v>10000</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B24" t="s">
-        <v>794</v>
+        <v>673</v>
       </c>
       <c r="C24" t="s">
-        <v>563</v>
+        <v>476</v>
       </c>
       <c r="D24">
         <v>10000</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B25" t="s">
-        <v>794</v>
+        <v>673</v>
       </c>
       <c r="C25" t="s">
-        <v>472</v>
+        <v>412</v>
       </c>
       <c r="D25">
         <v>10000</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B26" t="s">
-        <v>794</v>
+        <v>673</v>
       </c>
       <c r="C26" t="s">
-        <v>520</v>
+        <v>425</v>
       </c>
       <c r="D26">
         <v>10000</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B27" t="s">
-        <v>794</v>
+        <v>673</v>
       </c>
       <c r="C27" t="s">
-        <v>494</v>
+        <v>451</v>
       </c>
       <c r="D27">
         <v>10000</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B28" t="s">
-        <v>794</v>
+        <v>673</v>
       </c>
       <c r="C28" t="s">
-        <v>558</v>
+        <v>455</v>
       </c>
       <c r="D28">
         <v>10000</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B29" t="s">
-        <v>794</v>
+        <v>673</v>
       </c>
       <c r="C29" t="s">
-        <v>561</v>
+        <v>448</v>
       </c>
       <c r="D29">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B30" t="s">
-        <v>794</v>
+        <v>673</v>
       </c>
       <c r="C30" t="s">
-        <v>533</v>
+        <v>457</v>
       </c>
       <c r="D30">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B31" t="s">
-        <v>794</v>
+        <v>673</v>
       </c>
       <c r="C31" t="s">
-        <v>468</v>
+        <v>414</v>
       </c>
       <c r="D31">
         <v>10000</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B32" t="s">
-        <v>794</v>
+        <v>673</v>
       </c>
       <c r="C32" t="s">
-        <v>522</v>
+        <v>430</v>
       </c>
       <c r="D32">
         <v>10000</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B33" t="s">
-        <v>794</v>
+        <v>673</v>
       </c>
       <c r="C33" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="D33">
         <v>10000</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B34" t="s">
-        <v>794</v>
+        <v>673</v>
       </c>
       <c r="C34" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="D34">
         <v>10000</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B35" t="s">
-        <v>794</v>
+        <v>673</v>
       </c>
       <c r="C35" t="s">
-        <v>501</v>
+        <v>470</v>
       </c>
       <c r="D35">
         <v>10000</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>773</v>
+        <v>652</v>
       </c>
       <c r="B36" t="s">
-        <v>794</v>
+        <v>673</v>
       </c>
       <c r="C36" t="s">
-        <v>560</v>
+        <v>419</v>
       </c>
       <c r="D36">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>773</v>
-      </c>
-      <c r="B37" t="s">
-        <v>794</v>
-      </c>
-      <c r="C37" t="s">
-        <v>550</v>
-      </c>
-      <c r="D37">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>773</v>
-      </c>
-      <c r="B38" t="s">
-        <v>794</v>
-      </c>
-      <c r="C38" t="s">
-        <v>556</v>
-      </c>
-      <c r="D38">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>773</v>
-      </c>
-      <c r="B39" t="s">
-        <v>794</v>
-      </c>
-      <c r="C39" t="s">
-        <v>493</v>
-      </c>
-      <c r="D39">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>773</v>
-      </c>
-      <c r="B40" t="s">
-        <v>794</v>
-      </c>
-      <c r="C40" t="s">
-        <v>515</v>
-      </c>
-      <c r="D40">
         <v>10000</v>
       </c>
     </row>
@@ -11579,42 +10255,42 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>770</v>
+        <v>649</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>795</v>
+        <v>674</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>797</v>
+        <v>676</v>
       </c>
       <c r="B2" t="s">
-        <v>798</v>
+        <v>677</v>
       </c>
       <c r="C2" t="s">
-        <v>799</v>
+        <v>678</v>
       </c>
       <c r="D2">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>797</v>
+        <v>676</v>
       </c>
       <c r="B3" t="s">
-        <v>798</v>
+        <v>677</v>
       </c>
       <c r="C3" t="s">
         <v>133</v>
@@ -11629,45 +10305,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00850a8a-55a0-4f29-bb56-d3de9b9bc75c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="33e70369-3675-4c3b-99e1-030eb9633bdf" xsi:nil="true"/>
-    <SharedWithUsers xmlns="33e70369-3675-4c3b-99e1-030eb9633bdf">
-      <UserInfo>
-        <DisplayName>Kallakuri, Sowjanya (NIH/NCI) [C]</DisplayName>
-        <AccountId>214</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Dorman, Zachary (NIH/NCI) [C]</DisplayName>
-        <AccountId>19</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Radhakrishnan, Gayathri (NIH/NCI) [C]</DisplayName>
-        <AccountId>33</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002BAA57F805DE4D498A43031B16C0C8A1" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="31d54ef3ca738e332da14dc10991e335">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00850a8a-55a0-4f29-bb56-d3de9b9bc75c" xmlns:ns3="33e70369-3675-4c3b-99e1-030eb9633bdf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e2789f7211f2f0296d09b7bbdbdf6676" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002BAA57F805DE4D498A43031B16C0C8A1" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d255e04af8190f6c31f5773ad84c428e">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00850a8a-55a0-4f29-bb56-d3de9b9bc75c" xmlns:ns3="33e70369-3675-4c3b-99e1-030eb9633bdf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a8a25e01f7003c922a76e9f426634f46" ns2:_="" ns3:_="">
     <xsd:import namespace="00850a8a-55a0-4f29-bb56-d3de9b9bc75c"/>
     <xsd:import namespace="33e70369-3675-4c3b-99e1-030eb9633bdf"/>
     <xsd:element name="properties">
@@ -11688,6 +10327,7 @@
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -11746,6 +10386,11 @@
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="21" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="33e70369-3675-4c3b-99e1-030eb9633bdf" elementFormDefault="qualified">
@@ -11888,33 +10533,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{488608FF-C63F-4B93-892D-43310D7B16C4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="00850a8a-55a0-4f29-bb56-d3de9b9bc75c"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="33e70369-3675-4c3b-99e1-030eb9633bdf"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9AB27937-3662-44BB-B7E9-95AE1124E216}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00850a8a-55a0-4f29-bb56-d3de9b9bc75c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="33e70369-3675-4c3b-99e1-030eb9633bdf" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{896EF01E-D7AF-4C5B-B2C7-8D150EFF41C0}">
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D09680B-4ACC-4615-A766-70DEF14FBB11}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -11932,6 +10572,31 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF9BB7A6-BE2E-4B6D-8EC7-2FAADC1EC7C9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77B5D4CA-FB9E-4D01-8E29-8CFF7CD858D9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="00850a8a-55a0-4f29-bb56-d3de9b9bc75c"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="33e70369-3675-4c3b-99e1-030eb9633bdf"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{14b77578-9773-42d5-8507-251ca2dc2b06}" enabled="0" method="" siteId="{14b77578-9773-42d5-8507-251ca2dc2b06}" removed="1"/>

--- a/InputFiles/MTP_DV3_22.11_v12.0.xlsx
+++ b/InputFiles/MTP_DV3_22.11_v12.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nih.sharepoint.com/sites/NCI-CBIIT-FNLCCDI/Shared Documents/MTP (PPDC)/2-Executing/Input Test Data for DV3 Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B94AA182-3507-4C74-A30B-634953841672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_C28F3D7107EA371DEF8F0E8A8C37B8EC492352B8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE178315-F3C9-4054-9589-42C81965B601}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18870" yWindow="2805" windowWidth="24480" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sourceData" sheetId="1" r:id="rId1"/>
@@ -2472,23 +2472,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.7265625" customWidth="1"/>
-    <col min="2" max="2" width="20.7265625" customWidth="1"/>
+    <col min="1" max="1" width="40.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>45071.679765691937</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2563,9 +2563,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -2803,7 +2803,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>2428</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -2956,7 +2956,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -3092,7 +3092,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>47</v>
       </c>
@@ -3109,7 +3109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -3126,7 +3126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>49</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>50</v>
       </c>
@@ -3160,7 +3160,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>51</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>53</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>55</v>
       </c>
@@ -3245,7 +3245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -3272,12 +3272,15 @@
   <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -3321,7 +3324,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>146</v>
       </c>
@@ -3365,7 +3368,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>147</v>
       </c>
@@ -3409,7 +3412,7 @@
         <v>6455</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>148</v>
       </c>
@@ -3453,7 +3456,7 @@
         <v>19274</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>149</v>
       </c>
@@ -3497,7 +3500,7 @@
         <v>3920</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>150</v>
       </c>
@@ -3541,7 +3544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>151</v>
       </c>
@@ -3585,7 +3588,7 @@
         <v>23212</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>152</v>
       </c>
@@ -3629,7 +3632,7 @@
         <v>6738</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>153</v>
       </c>
@@ -3673,7 +3676,7 @@
         <v>3002</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>154</v>
       </c>
@@ -3717,7 +3720,7 @@
         <v>48018</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>155</v>
       </c>
@@ -3761,7 +3764,7 @@
         <v>40415</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>156</v>
       </c>
@@ -3805,7 +3808,7 @@
         <v>19855</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>157</v>
       </c>
@@ -3849,7 +3852,7 @@
         <v>21268</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>158</v>
       </c>
@@ -3893,7 +3896,7 @@
         <v>14343</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>159</v>
       </c>
@@ -3937,7 +3940,7 @@
         <v>29224</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>160</v>
       </c>
@@ -3981,7 +3984,7 @@
         <v>3414</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>161</v>
       </c>
@@ -4025,7 +4028,7 @@
         <v>13629</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>162</v>
       </c>
@@ -4069,7 +4072,7 @@
         <v>13569</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>163</v>
       </c>
@@ -4113,7 +4116,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>164</v>
       </c>
@@ -4157,7 +4160,7 @@
         <v>8464</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>165</v>
       </c>
@@ -4201,7 +4204,7 @@
         <v>10209</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>166</v>
       </c>
@@ -4245,7 +4248,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>167</v>
       </c>
@@ -4289,7 +4292,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>168</v>
       </c>
@@ -4333,7 +4336,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>169</v>
       </c>
@@ -4377,7 +4380,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>170</v>
       </c>
@@ -4421,7 +4424,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>171</v>
       </c>
@@ -4465,7 +4468,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>172</v>
       </c>
@@ -4509,7 +4512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>173</v>
       </c>
@@ -4553,7 +4556,7 @@
         <v>13936</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>174</v>
       </c>
@@ -4597,7 +4600,7 @@
         <v>4794</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>175</v>
       </c>
@@ -4641,7 +4644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>176</v>
       </c>
@@ -4685,7 +4688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>177</v>
       </c>
@@ -4729,7 +4732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>178</v>
       </c>
@@ -4773,7 +4776,7 @@
         <v>15021</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>179</v>
       </c>
@@ -4817,7 +4820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>180</v>
       </c>
@@ -4861,7 +4864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>181</v>
       </c>
@@ -4905,7 +4908,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>182</v>
       </c>
@@ -4949,7 +4952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>183</v>
       </c>
@@ -4993,7 +4996,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>184</v>
       </c>
@@ -5037,7 +5040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>185</v>
       </c>
@@ -5081,7 +5084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>186</v>
       </c>
@@ -5134,11 +5137,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -5152,7 +5157,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>247</v>
       </c>
@@ -5166,7 +5171,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>248</v>
       </c>
@@ -5180,7 +5185,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>249</v>
       </c>
@@ -5194,7 +5199,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>250</v>
       </c>
@@ -5208,7 +5213,7 @@
         <v>7751</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>251</v>
       </c>
@@ -5222,7 +5227,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>252</v>
       </c>
@@ -5236,7 +5241,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>253</v>
       </c>
@@ -5250,7 +5255,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>254</v>
       </c>
@@ -5264,7 +5269,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>255</v>
       </c>
@@ -5278,7 +5283,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>256</v>
       </c>
@@ -5292,7 +5297,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>257</v>
       </c>
@@ -5306,7 +5311,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>258</v>
       </c>
@@ -5320,7 +5325,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>259</v>
       </c>
@@ -5334,7 +5339,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>260</v>
       </c>
@@ -5348,7 +5353,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>261</v>
       </c>
@@ -5362,7 +5367,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>262</v>
       </c>
@@ -5376,7 +5381,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>263</v>
       </c>
@@ -5390,7 +5395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>264</v>
       </c>
@@ -5404,7 +5409,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>265</v>
       </c>
@@ -5418,7 +5423,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>266</v>
       </c>
@@ -5432,7 +5437,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>267</v>
       </c>
@@ -5446,7 +5451,7 @@
         <v>2631</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>268</v>
       </c>
@@ -5460,7 +5465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>269</v>
       </c>
@@ -5474,7 +5479,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>270</v>
       </c>
@@ -5488,7 +5493,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>271</v>
       </c>
@@ -5502,7 +5507,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>272</v>
       </c>
@@ -5516,7 +5521,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>273</v>
       </c>
@@ -5530,7 +5535,7 @@
         <v>4299</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>274</v>
       </c>
@@ -5544,7 +5549,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>275</v>
       </c>
@@ -5558,7 +5563,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>276</v>
       </c>
@@ -5572,7 +5577,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>277</v>
       </c>
@@ -5586,7 +5591,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>278</v>
       </c>
@@ -5600,7 +5605,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>279</v>
       </c>
@@ -5614,7 +5619,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>280</v>
       </c>
@@ -5628,7 +5633,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>281</v>
       </c>
@@ -5642,7 +5647,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>282</v>
       </c>
@@ -5656,7 +5661,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>283</v>
       </c>
@@ -5670,7 +5675,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>284</v>
       </c>
@@ -5684,7 +5689,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>285</v>
       </c>
@@ -5698,7 +5703,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>286</v>
       </c>
@@ -5712,7 +5717,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>287</v>
       </c>
@@ -5726,7 +5731,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>288</v>
       </c>
@@ -5740,7 +5745,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>289</v>
       </c>
@@ -5754,7 +5759,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>290</v>
       </c>
@@ -5768,7 +5773,7 @@
         <v>5068</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>291</v>
       </c>
@@ -5782,7 +5787,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>292</v>
       </c>
@@ -5796,7 +5801,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>293</v>
       </c>
@@ -5810,7 +5815,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>294</v>
       </c>
@@ -5824,7 +5829,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>295</v>
       </c>
@@ -5838,7 +5843,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>296</v>
       </c>
@@ -5852,7 +5857,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>297</v>
       </c>
@@ -5866,7 +5871,7 @@
         <v>4249</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>298</v>
       </c>
@@ -5880,7 +5885,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>299</v>
       </c>
@@ -5894,7 +5899,7 @@
         <v>3752</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>300</v>
       </c>
@@ -5908,7 +5913,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>301</v>
       </c>
@@ -5922,7 +5927,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>302</v>
       </c>
@@ -5936,7 +5941,7 @@
         <v>5544</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>303</v>
       </c>
@@ -5950,7 +5955,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>304</v>
       </c>
@@ -5964,7 +5969,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>305</v>
       </c>
@@ -5978,7 +5983,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>306</v>
       </c>
@@ -5992,7 +5997,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>307</v>
       </c>
@@ -6006,7 +6011,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>308</v>
       </c>
@@ -6020,7 +6025,7 @@
         <v>6848</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>309</v>
       </c>
@@ -6034,7 +6039,7 @@
         <v>2866</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>310</v>
       </c>
@@ -6048,7 +6053,7 @@
         <v>5684</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>311</v>
       </c>
@@ -6062,7 +6067,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>312</v>
       </c>
@@ -6076,7 +6081,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>313</v>
       </c>
@@ -6090,7 +6095,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>314</v>
       </c>
@@ -6104,7 +6109,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>315</v>
       </c>
@@ -6118,7 +6123,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>316</v>
       </c>
@@ -6132,7 +6137,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>317</v>
       </c>
@@ -6146,7 +6151,7 @@
         <v>7109</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>318</v>
       </c>
@@ -6160,7 +6165,7 @@
         <v>7008</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>319</v>
       </c>
@@ -6174,7 +6179,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>320</v>
       </c>
@@ -6188,7 +6193,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>321</v>
       </c>
@@ -6202,7 +6207,7 @@
         <v>7207</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>322</v>
       </c>
@@ -6216,7 +6221,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>323</v>
       </c>
@@ -6230,7 +6235,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>324</v>
       </c>
@@ -6244,7 +6249,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>325</v>
       </c>
@@ -6269,9 +6274,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -6285,7 +6290,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>485</v>
       </c>
@@ -6299,7 +6304,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>486</v>
       </c>
@@ -6313,7 +6318,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>487</v>
       </c>
@@ -6327,7 +6332,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>488</v>
       </c>
@@ -6341,7 +6346,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>489</v>
       </c>
@@ -6355,7 +6360,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>490</v>
       </c>
@@ -6369,7 +6374,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>491</v>
       </c>
@@ -6383,7 +6388,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>492</v>
       </c>
@@ -6397,7 +6402,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>493</v>
       </c>
@@ -6411,7 +6416,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>494</v>
       </c>
@@ -6425,7 +6430,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>495</v>
       </c>
@@ -6439,7 +6444,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>496</v>
       </c>
@@ -6453,7 +6458,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>497</v>
       </c>
@@ -6467,7 +6472,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>498</v>
       </c>
@@ -6481,7 +6486,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>499</v>
       </c>
@@ -6495,7 +6500,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>500</v>
       </c>
@@ -6509,7 +6514,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>501</v>
       </c>
@@ -6523,7 +6528,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>502</v>
       </c>
@@ -6537,7 +6542,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>503</v>
       </c>
@@ -6551,7 +6556,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>504</v>
       </c>
@@ -6565,7 +6570,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>505</v>
       </c>
@@ -6579,7 +6584,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>506</v>
       </c>
@@ -6593,7 +6598,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>507</v>
       </c>
@@ -6607,7 +6612,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>508</v>
       </c>
@@ -6621,7 +6626,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>509</v>
       </c>
@@ -6635,7 +6640,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>510</v>
       </c>
@@ -6649,7 +6654,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>511</v>
       </c>
@@ -6663,7 +6668,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>512</v>
       </c>
@@ -6677,7 +6682,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>513</v>
       </c>
@@ -6691,7 +6696,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>514</v>
       </c>
@@ -6705,7 +6710,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>515</v>
       </c>
@@ -6719,7 +6724,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>516</v>
       </c>
@@ -6733,7 +6738,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>517</v>
       </c>
@@ -6747,7 +6752,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>518</v>
       </c>
@@ -6761,7 +6766,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>519</v>
       </c>
@@ -6775,7 +6780,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>520</v>
       </c>
@@ -6789,7 +6794,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>521</v>
       </c>
@@ -6803,7 +6808,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>522</v>
       </c>
@@ -6817,7 +6822,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>523</v>
       </c>
@@ -6831,7 +6836,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>524</v>
       </c>
@@ -6845,7 +6850,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>525</v>
       </c>
@@ -6859,7 +6864,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>526</v>
       </c>
@@ -6873,7 +6878,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>527</v>
       </c>
@@ -6887,7 +6892,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>528</v>
       </c>
@@ -6901,7 +6906,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>529</v>
       </c>
@@ -6915,7 +6920,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>530</v>
       </c>
@@ -6929,7 +6934,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>531</v>
       </c>
@@ -6943,7 +6948,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>532</v>
       </c>
@@ -6957,7 +6962,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>533</v>
       </c>
@@ -6971,7 +6976,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>534</v>
       </c>
@@ -6985,7 +6990,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>535</v>
       </c>
@@ -6999,7 +7004,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>536</v>
       </c>
@@ -7013,7 +7018,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>537</v>
       </c>
@@ -7027,7 +7032,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>538</v>
       </c>
@@ -7041,7 +7046,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>539</v>
       </c>
@@ -7055,7 +7060,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>540</v>
       </c>
@@ -7069,7 +7074,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>541</v>
       </c>
@@ -7083,7 +7088,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>542</v>
       </c>
@@ -7097,7 +7102,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>543</v>
       </c>
@@ -7111,7 +7116,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>544</v>
       </c>
@@ -7125,7 +7130,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>545</v>
       </c>
@@ -7139,7 +7144,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>546</v>
       </c>
@@ -7153,7 +7158,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>547</v>
       </c>
@@ -7167,7 +7172,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>548</v>
       </c>
@@ -7191,15 +7196,15 @@
   <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="37.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -7246,7 +7251,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>550</v>
       </c>
@@ -7293,7 +7298,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>551</v>
       </c>
@@ -7340,7 +7345,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>552</v>
       </c>
@@ -7387,7 +7392,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>553</v>
       </c>
@@ -7434,7 +7439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>554</v>
       </c>
@@ -7481,7 +7486,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>555</v>
       </c>
@@ -7528,7 +7533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>556</v>
       </c>
@@ -7575,7 +7580,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>557</v>
       </c>
@@ -7622,7 +7627,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>558</v>
       </c>
@@ -7669,7 +7674,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>559</v>
       </c>
@@ -7716,7 +7721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>560</v>
       </c>
@@ -7763,7 +7768,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>561</v>
       </c>
@@ -7810,7 +7815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>562</v>
       </c>
@@ -7857,7 +7862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>563</v>
       </c>
@@ -7904,7 +7909,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>564</v>
       </c>
@@ -7951,7 +7956,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>565</v>
       </c>
@@ -7998,7 +8003,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>566</v>
       </c>
@@ -8045,7 +8050,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>567</v>
       </c>
@@ -8092,7 +8097,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>568</v>
       </c>
@@ -8139,7 +8144,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>569</v>
       </c>
@@ -8186,7 +8191,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>570</v>
       </c>
@@ -8233,7 +8238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>571</v>
       </c>
@@ -8280,7 +8285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>572</v>
       </c>
@@ -8327,7 +8332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>573</v>
       </c>
@@ -8374,7 +8379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>574</v>
       </c>
@@ -8421,7 +8426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>575</v>
       </c>
@@ -8468,7 +8473,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>576</v>
       </c>
@@ -8515,7 +8520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>577</v>
       </c>
@@ -8562,7 +8567,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>578</v>
       </c>
@@ -8609,7 +8614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>579</v>
       </c>
@@ -8656,7 +8661,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>580</v>
       </c>
@@ -8703,7 +8708,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>581</v>
       </c>
@@ -8750,7 +8755,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>582</v>
       </c>
@@ -8797,7 +8802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>583</v>
       </c>
@@ -8844,7 +8849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>584</v>
       </c>
@@ -8891,7 +8896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>585</v>
       </c>
@@ -8938,7 +8943,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>586</v>
       </c>
@@ -8985,7 +8990,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>587</v>
       </c>
@@ -9032,7 +9037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>588</v>
       </c>
@@ -9079,7 +9084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>589</v>
       </c>
@@ -9135,11 +9140,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -9153,7 +9158,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>652</v>
       </c>
@@ -9167,7 +9172,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>652</v>
       </c>
@@ -9181,7 +9186,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>652</v>
       </c>
@@ -9195,7 +9200,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>652</v>
       </c>
@@ -9209,7 +9214,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>652</v>
       </c>
@@ -9223,7 +9228,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>652</v>
       </c>
@@ -9237,7 +9242,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>652</v>
       </c>
@@ -9251,7 +9256,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>652</v>
       </c>
@@ -9265,7 +9270,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>652</v>
       </c>
@@ -9279,7 +9284,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>652</v>
       </c>
@@ -9293,7 +9298,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>652</v>
       </c>
@@ -9307,7 +9312,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>652</v>
       </c>
@@ -9321,7 +9326,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>652</v>
       </c>
@@ -9335,7 +9340,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>652</v>
       </c>
@@ -9349,7 +9354,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>652</v>
       </c>
@@ -9363,7 +9368,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>652</v>
       </c>
@@ -9377,7 +9382,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>652</v>
       </c>
@@ -9391,7 +9396,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>652</v>
       </c>
@@ -9405,7 +9410,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>652</v>
       </c>
@@ -9419,7 +9424,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>652</v>
       </c>
@@ -9433,7 +9438,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>652</v>
       </c>
@@ -9447,7 +9452,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>652</v>
       </c>
@@ -9461,7 +9466,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>652</v>
       </c>
@@ -9475,7 +9480,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>652</v>
       </c>
@@ -9489,7 +9494,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>652</v>
       </c>
@@ -9503,7 +9508,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>652</v>
       </c>
@@ -9517,7 +9522,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>652</v>
       </c>
@@ -9531,7 +9536,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>652</v>
       </c>
@@ -9545,7 +9550,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>652</v>
       </c>
@@ -9559,7 +9564,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>652</v>
       </c>
@@ -9573,7 +9578,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>652</v>
       </c>
@@ -9587,7 +9592,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>652</v>
       </c>
@@ -9601,7 +9606,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>652</v>
       </c>
@@ -9615,7 +9620,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>652</v>
       </c>
@@ -9629,7 +9634,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>652</v>
       </c>
@@ -9643,7 +9648,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>652</v>
       </c>
@@ -9657,7 +9662,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>652</v>
       </c>
@@ -9671,7 +9676,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>652</v>
       </c>
@@ -9685,7 +9690,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>652</v>
       </c>
@@ -9699,7 +9704,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>652</v>
       </c>
@@ -9713,7 +9718,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>652</v>
       </c>
@@ -9738,9 +9743,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -9754,7 +9759,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>652</v>
       </c>
@@ -9768,7 +9773,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>652</v>
       </c>
@@ -9782,7 +9787,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>652</v>
       </c>
@@ -9796,7 +9801,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>652</v>
       </c>
@@ -9810,7 +9815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>652</v>
       </c>
@@ -9824,7 +9829,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>652</v>
       </c>
@@ -9838,7 +9843,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>652</v>
       </c>
@@ -9852,7 +9857,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>652</v>
       </c>
@@ -9866,7 +9871,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>652</v>
       </c>
@@ -9880,7 +9885,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>652</v>
       </c>
@@ -9894,7 +9899,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>652</v>
       </c>
@@ -9908,7 +9913,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>652</v>
       </c>
@@ -9922,7 +9927,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>652</v>
       </c>
@@ -9936,7 +9941,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>652</v>
       </c>
@@ -9950,7 +9955,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>652</v>
       </c>
@@ -9964,7 +9969,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>652</v>
       </c>
@@ -9978,7 +9983,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>652</v>
       </c>
@@ -9992,7 +9997,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>652</v>
       </c>
@@ -10006,7 +10011,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>652</v>
       </c>
@@ -10020,7 +10025,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>652</v>
       </c>
@@ -10034,7 +10039,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>652</v>
       </c>
@@ -10048,7 +10053,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>652</v>
       </c>
@@ -10062,7 +10067,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>652</v>
       </c>
@@ -10076,7 +10081,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>652</v>
       </c>
@@ -10090,7 +10095,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>652</v>
       </c>
@@ -10104,7 +10109,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>652</v>
       </c>
@@ -10118,7 +10123,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>652</v>
       </c>
@@ -10132,7 +10137,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>652</v>
       </c>
@@ -10146,7 +10151,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>652</v>
       </c>
@@ -10160,7 +10165,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>652</v>
       </c>
@@ -10174,7 +10179,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>652</v>
       </c>
@@ -10188,7 +10193,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>652</v>
       </c>
@@ -10202,7 +10207,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>652</v>
       </c>
@@ -10216,7 +10221,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>652</v>
       </c>
@@ -10230,7 +10235,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>652</v>
       </c>
@@ -10255,9 +10260,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -10271,7 +10276,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>676</v>
       </c>
@@ -10285,7 +10290,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>676</v>
       </c>
@@ -10305,6 +10310,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00850a8a-55a0-4f29-bb56-d3de9b9bc75c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="33e70369-3675-4c3b-99e1-030eb9633bdf" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002BAA57F805DE4D498A43031B16C0C8A1" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d255e04af8190f6c31f5773ad84c428e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00850a8a-55a0-4f29-bb56-d3de9b9bc75c" xmlns:ns3="33e70369-3675-4c3b-99e1-030eb9633bdf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a8a25e01f7003c922a76e9f426634f46" ns2:_="" ns3:_="">
     <xsd:import namespace="00850a8a-55a0-4f29-bb56-d3de9b9bc75c"/>
@@ -10533,27 +10558,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77B5D4CA-FB9E-4D01-8E29-8CFF7CD858D9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="33e70369-3675-4c3b-99e1-030eb9633bdf"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="00850a8a-55a0-4f29-bb56-d3de9b9bc75c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00850a8a-55a0-4f29-bb56-d3de9b9bc75c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="33e70369-3675-4c3b-99e1-030eb9633bdf" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF9BB7A6-BE2E-4B6D-8EC7-2FAADC1EC7C9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D09680B-4ACC-4615-A766-70DEF14FBB11}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10570,35 +10600,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF9BB7A6-BE2E-4B6D-8EC7-2FAADC1EC7C9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77B5D4CA-FB9E-4D01-8E29-8CFF7CD858D9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="00850a8a-55a0-4f29-bb56-d3de9b9bc75c"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="33e70369-3675-4c3b-99e1-030eb9633bdf"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
-<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{14b77578-9773-42d5-8507-251ca2dc2b06}" enabled="0" method="" siteId="{14b77578-9773-42d5-8507-251ca2dc2b06}" removed="1"/>
-</clbl:labelList>
 </file>